--- a/LogBookCritics/Locale/Locale.xlsx
+++ b/LogBookCritics/Locale/Locale.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="204">
   <si>
     <t xml:space="preserve">Test message</t>
   </si>
@@ -58,6 +58,54 @@
     <t xml:space="preserve">Alterna el seguimiento de daños y sanaciones.</t>
   </si>
   <si>
+    <t xml:space="preserve">Tracking heals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguimiento de sanaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle tracking heals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de sanaciones.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking hits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguimiento de daños</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle tracking hits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de daños.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tracking attacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguimientos de golpes blancos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle tracking attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de golpes blancos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Messages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantalla</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unlock text frame</t>
   </si>
   <si>
@@ -70,46 +118,82 @@
     <t xml:space="preserve">Alterna el bloqueo del marco de texto.</t>
   </si>
   <si>
-    <t xml:space="preserve">Tracking heals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguimiento de sanaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle tracking heals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de sanaciones.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracking hits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguimiento de daños</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle tracking hits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de daños.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracking attacks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguimientos de golpes blancos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle tracking attacks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de golpes blancos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tracking groups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupos de seguimiento</t>
+    <t xml:space="preserve">Message duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duración del mensaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration of messages on screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duración de los mensajes en pantalla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posición en pantalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posición X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen position X.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posición X en pantalla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Position Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posición Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screen position Y.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Posición Y en pantalla.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maintenance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mantenimiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete character data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrar datos de personaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Character name.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre del personaje.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrar entrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you sure you want to delete this entry?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Está seguro de que desea eliminar esta entrada?</t>
   </si>
   <si>
     <t xml:space="preserve">Healings</t>
@@ -364,12 +448,6 @@
     <t xml:space="preserve">Seguimiento de críticos |c%s%s|r</t>
   </si>
   <si>
-    <t xml:space="preserve">Critics tracking initialized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguimiento de críticos inicializado</t>
-  </si>
-  <si>
     <t xml:space="preserve">Attack</t>
   </si>
   <si>
@@ -448,12 +526,6 @@
     <t xml:space="preserve">Nueva sanación normal |c%smás baja|r:</t>
   </si>
   <si>
-    <t xml:space="preserve">LogBook critics management window</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ventana de gestión de críticos de LogBook</t>
-  </si>
-  <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
@@ -496,6 +568,18 @@
     <t xml:space="preserve">Daño o sanación crítica.</t>
   </si>
   <si>
+    <t xml:space="preserve">Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloquear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloquear posicion</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spell list</t>
   </si>
   <si>
@@ -518,12 +602,6 @@
   </si>
   <si>
     <t xml:space="preserve">Reino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personaje</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -768,10 +846,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D90" activeCellId="0" sqref="D1:D90"/>
+      <selection pane="topLeft" activeCell="D103" activeCellId="0" sqref="D1:D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -887,11 +965,11 @@
       </c>
       <c r="C7" s="3" t="str">
         <f aca="false">"L["""&amp;A7&amp;"""] = true"</f>
-        <v>L["Unlock text frame"] = true</v>
+        <v>L["Tracking heals"] = true</v>
       </c>
       <c r="D7" s="1" t="str">
         <f aca="false">"L["""&amp;A7&amp;"""] = """ &amp; B7 &amp; """"</f>
-        <v>L["Unlock text frame"] = "Desbloquear marco de texto"</v>
+        <v>L["Tracking heals"] = "Seguimiento de sanaciones"</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -903,11 +981,11 @@
       </c>
       <c r="C8" s="3" t="str">
         <f aca="false">"L["""&amp;A8&amp;"""] = true"</f>
-        <v>L["Toggle text frame lock."] = true</v>
+        <v>L["Toggle tracking heals."] = true</v>
       </c>
       <c r="D8" s="1" t="str">
         <f aca="false">"L["""&amp;A8&amp;"""] = """ &amp; B8 &amp; """"</f>
-        <v>L["Toggle text frame lock."] = "Alterna el bloqueo del marco de texto."</v>
+        <v>L["Toggle tracking heals."] = "Alterna el seguimiento de sanaciones."</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,11 +997,11 @@
       </c>
       <c r="C9" s="3" t="str">
         <f aca="false">"L["""&amp;A9&amp;"""] = true"</f>
-        <v>L["Tracking heals"] = true</v>
+        <v>L["Tracking hits"] = true</v>
       </c>
       <c r="D9" s="1" t="str">
         <f aca="false">"L["""&amp;A9&amp;"""] = """ &amp; B9 &amp; """"</f>
-        <v>L["Tracking heals"] = "Seguimiento de sanaciones"</v>
+        <v>L["Tracking hits"] = "Seguimiento de daños"</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -935,11 +1013,11 @@
       </c>
       <c r="C10" s="3" t="str">
         <f aca="false">"L["""&amp;A10&amp;"""] = true"</f>
-        <v>L["Toggle tracking heals."] = true</v>
+        <v>L["Toggle tracking hits."] = true</v>
       </c>
       <c r="D10" s="1" t="str">
         <f aca="false">"L["""&amp;A10&amp;"""] = """ &amp; B10 &amp; """"</f>
-        <v>L["Toggle tracking heals."] = "Alterna el seguimiento de sanaciones."</v>
+        <v>L["Toggle tracking hits."] = "Alterna el seguimiento de daños."</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,11 +1029,11 @@
       </c>
       <c r="C11" s="3" t="str">
         <f aca="false">"L["""&amp;A11&amp;"""] = true"</f>
-        <v>L["Tracking hits"] = true</v>
+        <v>L["Tracking attacks"] = true</v>
       </c>
       <c r="D11" s="1" t="str">
         <f aca="false">"L["""&amp;A11&amp;"""] = """ &amp; B11 &amp; """"</f>
-        <v>L["Tracking hits"] = "Seguimiento de daños"</v>
+        <v>L["Tracking attacks"] = "Seguimientos de golpes blancos"</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -967,11 +1045,11 @@
       </c>
       <c r="C12" s="3" t="str">
         <f aca="false">"L["""&amp;A12&amp;"""] = true"</f>
-        <v>L["Toggle tracking hits."] = true</v>
+        <v>L["Toggle tracking attacks."] = true</v>
       </c>
       <c r="D12" s="1" t="str">
         <f aca="false">"L["""&amp;A12&amp;"""] = """ &amp; B12 &amp; """"</f>
-        <v>L["Toggle tracking hits."] = "Alterna el seguimiento de daños."</v>
+        <v>L["Toggle tracking attacks."] = "Alterna el seguimiento de golpes blancos."</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -983,11 +1061,11 @@
       </c>
       <c r="C13" s="3" t="str">
         <f aca="false">"L["""&amp;A13&amp;"""] = true"</f>
-        <v>L["Tracking attacks"] = true</v>
+        <v>L["Messages"] = true</v>
       </c>
       <c r="D13" s="1" t="str">
         <f aca="false">"L["""&amp;A13&amp;"""] = """ &amp; B13 &amp; """"</f>
-        <v>L["Tracking attacks"] = "Seguimientos de golpes blancos"</v>
+        <v>L["Messages"] = "Mensajes"</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,11 +1077,11 @@
       </c>
       <c r="C14" s="3" t="str">
         <f aca="false">"L["""&amp;A14&amp;"""] = true"</f>
-        <v>L["Toggle tracking attacks."] = true</v>
+        <v>L["Screen"] = true</v>
       </c>
       <c r="D14" s="1" t="str">
         <f aca="false">"L["""&amp;A14&amp;"""] = """ &amp; B14 &amp; """"</f>
-        <v>L["Toggle tracking attacks."] = "Alterna el seguimiento de golpes blancos."</v>
+        <v>L["Screen"] = "Pantalla"</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1015,11 +1093,11 @@
       </c>
       <c r="C15" s="3" t="str">
         <f aca="false">"L["""&amp;A15&amp;"""] = true"</f>
-        <v>L["Tracking groups"] = true</v>
+        <v>L["Unlock text frame"] = true</v>
       </c>
       <c r="D15" s="1" t="str">
         <f aca="false">"L["""&amp;A15&amp;"""] = """ &amp; B15 &amp; """"</f>
-        <v>L["Tracking groups"] = "Grupos de seguimiento"</v>
+        <v>L["Unlock text frame"] = "Desbloquear marco de texto"</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1031,11 +1109,11 @@
       </c>
       <c r="C16" s="3" t="str">
         <f aca="false">"L["""&amp;A16&amp;"""] = true"</f>
-        <v>L["Healings"] = true</v>
+        <v>L["Toggle text frame lock."] = true</v>
       </c>
       <c r="D16" s="1" t="str">
         <f aca="false">"L["""&amp;A16&amp;"""] = """ &amp; B16 &amp; """"</f>
-        <v>L["Healings"] = "Sanaciones"</v>
+        <v>L["Toggle text frame lock."] = "Alterna el bloqueo del marco de texto."</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,11 +1125,11 @@
       </c>
       <c r="C17" s="3" t="str">
         <f aca="false">"L["""&amp;A17&amp;"""] = true"</f>
-        <v>L["Normal heals"] = true</v>
+        <v>L["Message duration"] = true</v>
       </c>
       <c r="D17" s="1" t="str">
         <f aca="false">"L["""&amp;A17&amp;"""] = """ &amp; B17 &amp; """"</f>
-        <v>L["Normal heals"] = "Sanaciones normales"</v>
+        <v>L["Message duration"] = "Duración del mensaje"</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1063,14 +1141,14 @@
       </c>
       <c r="C18" s="3" t="str">
         <f aca="false">"L["""&amp;A18&amp;"""] = true"</f>
-        <v>L["Toggle tracking normal heals."] = true</v>
+        <v>L["Duration of messages on screen."] = true</v>
       </c>
       <c r="D18" s="1" t="str">
         <f aca="false">"L["""&amp;A18&amp;"""] = """ &amp; B18 &amp; """"</f>
-        <v>L["Toggle tracking normal heals."] = "Alterna el seguimiento de sanaciones normales."</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Duration of messages on screen."] = "Duración de los mensajes en pantalla."</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1079,11 +1157,11 @@
       </c>
       <c r="C19" s="3" t="str">
         <f aca="false">"L["""&amp;A19&amp;"""] = true"</f>
-        <v>L["Change color of normal heals text."] = true</v>
+        <v>L["Screen position"] = true</v>
       </c>
       <c r="D19" s="1" t="str">
         <f aca="false">"L["""&amp;A19&amp;"""] = """ &amp; B19 &amp; """"</f>
-        <v>L["Change color of normal heals text."] = "Cambia el color de texto de las sanaciones normales."</v>
+        <v>L["Screen position"] = "Posición en pantalla"</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1095,14 +1173,14 @@
       </c>
       <c r="C20" s="3" t="str">
         <f aca="false">"L["""&amp;A20&amp;"""] = true"</f>
-        <v>L["Critical heals"] = true</v>
+        <v>L["Position X"] = true</v>
       </c>
       <c r="D20" s="1" t="str">
         <f aca="false">"L["""&amp;A20&amp;"""] = """ &amp; B20 &amp; """"</f>
-        <v>L["Critical heals"] = "Sanaciones críticas"</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Position X"] = "Posición X"</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1111,14 +1189,14 @@
       </c>
       <c r="C21" s="3" t="str">
         <f aca="false">"L["""&amp;A21&amp;"""] = true"</f>
-        <v>L["Toggle tracking critical heals."] = true</v>
+        <v>L["Screen position X."] = true</v>
       </c>
       <c r="D21" s="1" t="str">
         <f aca="false">"L["""&amp;A21&amp;"""] = """ &amp; B21 &amp; """"</f>
-        <v>L["Toggle tracking critical heals."] = "Alterna el seguimiento de las sanaciones críticas."</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Screen position X."] = "Posición X en pantalla."</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1127,11 +1205,11 @@
       </c>
       <c r="C22" s="3" t="str">
         <f aca="false">"L["""&amp;A22&amp;"""] = true"</f>
-        <v>L["Change color of critical heals text."] = true</v>
+        <v>L["Position Y"] = true</v>
       </c>
       <c r="D22" s="1" t="str">
         <f aca="false">"L["""&amp;A22&amp;"""] = """ &amp; B22 &amp; """"</f>
-        <v>L["Change color of critical heals text."] = "Cambia el color de texto de las sanaciones críticas."</v>
+        <v>L["Position Y"] = "Posición Y"</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,14 +1221,14 @@
       </c>
       <c r="C23" s="3" t="str">
         <f aca="false">"L["""&amp;A23&amp;"""] = true"</f>
-        <v>L["Highest values"] = true</v>
+        <v>L["Screen position Y."] = true</v>
       </c>
       <c r="D23" s="1" t="str">
         <f aca="false">"L["""&amp;A23&amp;"""] = """ &amp; B23 &amp; """"</f>
-        <v>L["Highest values"] = "Valores más altos"</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Screen position Y."] = "Posición Y en pantalla."</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1159,14 +1237,14 @@
       </c>
       <c r="C24" s="3" t="str">
         <f aca="false">"L["""&amp;A24&amp;"""] = true"</f>
-        <v>L["Toggle traking highest healing values."] = true</v>
+        <v>L["Maintenance"] = true</v>
       </c>
       <c r="D24" s="1" t="str">
         <f aca="false">"L["""&amp;A24&amp;"""] = """ &amp; B24 &amp; """"</f>
-        <v>L["Toggle traking highest healing values."] = "Alternar el seguimiento de los valores de sanación más altos."</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Maintenance"] = "Mantenimiento"</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1175,11 +1253,11 @@
       </c>
       <c r="C25" s="3" t="str">
         <f aca="false">"L["""&amp;A25&amp;"""] = true"</f>
-        <v>L["Change color of highest healing values."] = true</v>
+        <v>L["Delete character data"] = true</v>
       </c>
       <c r="D25" s="1" t="str">
         <f aca="false">"L["""&amp;A25&amp;"""] = """ &amp; B25 &amp; """"</f>
-        <v>L["Change color of highest healing values."] = "Cambia el color de los valores más altos de sanación."</v>
+        <v>L["Delete character data"] = "Borrar datos de personaje"</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1191,14 +1269,14 @@
       </c>
       <c r="C26" s="3" t="str">
         <f aca="false">"L["""&amp;A26&amp;"""] = true"</f>
-        <v>L["Lowest values"] = true</v>
+        <v>L["Character"] = true</v>
       </c>
       <c r="D26" s="1" t="str">
         <f aca="false">"L["""&amp;A26&amp;"""] = """ &amp; B26 &amp; """"</f>
-        <v>L["Lowest values"] = "Valores más bajos"</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Character"] = "Personaje"</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1207,14 +1285,14 @@
       </c>
       <c r="C27" s="3" t="str">
         <f aca="false">"L["""&amp;A27&amp;"""] = true"</f>
-        <v>L["Toggle traking lowest healing values."] = true</v>
+        <v>L["Character name."] = true</v>
       </c>
       <c r="D27" s="1" t="str">
         <f aca="false">"L["""&amp;A27&amp;"""] = """ &amp; B27 &amp; """"</f>
-        <v>L["Toggle traking lowest healing values."] = "Alterna el seguimiento de los valores de sanación mas bajos."</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Character name."] = "Nombre del personaje."</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -1223,14 +1301,14 @@
       </c>
       <c r="C28" s="3" t="str">
         <f aca="false">"L["""&amp;A28&amp;"""] = true"</f>
-        <v>L["Change color of lowest healing values."] = true</v>
+        <v>L["Delete entry"] = true</v>
       </c>
       <c r="D28" s="1" t="str">
         <f aca="false">"L["""&amp;A28&amp;"""] = """ &amp; B28 &amp; """"</f>
-        <v>L["Change color of lowest healing values."] = "Cambia el color de los valores más bajos de sanación."</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Delete entry"] = "Borrar entrada"</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1239,11 +1317,11 @@
       </c>
       <c r="C29" s="3" t="str">
         <f aca="false">"L["""&amp;A29&amp;"""] = true"</f>
-        <v>L["Harmful"] = true</v>
+        <v>L["Are you sure you want to delete this entry?"] = true</v>
       </c>
       <c r="D29" s="1" t="str">
         <f aca="false">"L["""&amp;A29&amp;"""] = """ &amp; B29 &amp; """"</f>
-        <v>L["Harmful"] = "Dañinos"</v>
+        <v>L["Are you sure you want to delete this entry?"] = "¿Está seguro de que desea eliminar esta entrada?"</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,14 +1333,14 @@
       </c>
       <c r="C30" s="3" t="str">
         <f aca="false">"L["""&amp;A30&amp;"""] = true"</f>
-        <v>L["Normal damage"] = true</v>
+        <v>L["Healings"] = true</v>
       </c>
       <c r="D30" s="1" t="str">
         <f aca="false">"L["""&amp;A30&amp;"""] = """ &amp; B30 &amp; """"</f>
-        <v>L["Normal damage"] = "Daño normal"</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Healings"] = "Sanaciones"</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1271,11 +1349,11 @@
       </c>
       <c r="C31" s="3" t="str">
         <f aca="false">"L["""&amp;A31&amp;"""] = true"</f>
-        <v>L["Toggle tracking normal damage."] = true</v>
+        <v>L["Normal heals"] = true</v>
       </c>
       <c r="D31" s="1" t="str">
         <f aca="false">"L["""&amp;A31&amp;"""] = """ &amp; B31 &amp; """"</f>
-        <v>L["Toggle tracking normal damage."] = "Alterna el seguimiento de daño normal."</v>
+        <v>L["Normal heals"] = "Sanaciones normales"</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,14 +1365,14 @@
       </c>
       <c r="C32" s="3" t="str">
         <f aca="false">"L["""&amp;A32&amp;"""] = true"</f>
-        <v>L["Change color of normal damage text."] = true</v>
+        <v>L["Toggle tracking normal heals."] = true</v>
       </c>
       <c r="D32" s="1" t="str">
         <f aca="false">"L["""&amp;A32&amp;"""] = """ &amp; B32 &amp; """"</f>
-        <v>L["Change color of normal damage text."] = "Cambia el color de texto del daño normal."</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Toggle tracking normal heals."] = "Alterna el seguimiento de sanaciones normales."</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1303,14 +1381,14 @@
       </c>
       <c r="C33" s="3" t="str">
         <f aca="false">"L["""&amp;A33&amp;"""] = true"</f>
-        <v>L["Critical damage"] = true</v>
+        <v>L["Change color of normal heals text."] = true</v>
       </c>
       <c r="D33" s="1" t="str">
         <f aca="false">"L["""&amp;A33&amp;"""] = """ &amp; B33 &amp; """"</f>
-        <v>L["Critical damage"] = "Daño crítico"</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Change color of normal heals text."] = "Cambia el color de texto de las sanaciones normales."</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1319,11 +1397,11 @@
       </c>
       <c r="C34" s="3" t="str">
         <f aca="false">"L["""&amp;A34&amp;"""] = true"</f>
-        <v>L["Toggle tracking critical damage."] = true</v>
+        <v>L["Critical heals"] = true</v>
       </c>
       <c r="D34" s="1" t="str">
         <f aca="false">"L["""&amp;A34&amp;"""] = """ &amp; B34 &amp; """"</f>
-        <v>L["Toggle tracking critical damage."] = "Alterna el seguimiento de daño crítico."</v>
+        <v>L["Critical heals"] = "Sanaciones críticas"</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1335,11 +1413,11 @@
       </c>
       <c r="C35" s="3" t="str">
         <f aca="false">"L["""&amp;A35&amp;"""] = true"</f>
-        <v>L["Change color of critical damage text."] = true</v>
+        <v>L["Toggle tracking critical heals."] = true</v>
       </c>
       <c r="D35" s="1" t="str">
         <f aca="false">"L["""&amp;A35&amp;"""] = """ &amp; B35 &amp; """"</f>
-        <v>L["Change color of critical damage text."] = "Cambiar el color del texto de daño crítico."</v>
+        <v>L["Toggle tracking critical heals."] = "Alterna el seguimiento de las sanaciones críticas."</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1351,14 +1429,14 @@
       </c>
       <c r="C36" s="3" t="str">
         <f aca="false">"L["""&amp;A36&amp;"""] = true"</f>
-        <v>L["Toggle traking highest damage values."] = true</v>
+        <v>L["Change color of critical heals text."] = true</v>
       </c>
       <c r="D36" s="1" t="str">
         <f aca="false">"L["""&amp;A36&amp;"""] = """ &amp; B36 &amp; """"</f>
-        <v>L["Toggle traking highest damage values."] = "Alterna el seguimiento de los valores de daño más altos."</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Change color of critical heals text."] = "Cambia el color de texto de las sanaciones críticas."</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -1367,11 +1445,11 @@
       </c>
       <c r="C37" s="3" t="str">
         <f aca="false">"L["""&amp;A37&amp;"""] = true"</f>
-        <v>L["Change color of highest damage values."] = true</v>
+        <v>L["Highest values"] = true</v>
       </c>
       <c r="D37" s="1" t="str">
         <f aca="false">"L["""&amp;A37&amp;"""] = """ &amp; B37 &amp; """"</f>
-        <v>L["Change color of highest damage values."] = "Cambia el color de los valores de daño más altos."</v>
+        <v>L["Highest values"] = "Valores más altos"</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,11 +1461,11 @@
       </c>
       <c r="C38" s="3" t="str">
         <f aca="false">"L["""&amp;A38&amp;"""] = true"</f>
-        <v>L["Toggle traking lowest damage values."] = true</v>
+        <v>L["Toggle traking highest healing values."] = true</v>
       </c>
       <c r="D38" s="1" t="str">
         <f aca="false">"L["""&amp;A38&amp;"""] = """ &amp; B38 &amp; """"</f>
-        <v>L["Toggle traking lowest damage values."] = "Alterna el seguimiento de los valores de daño más bajos."</v>
+        <v>L["Toggle traking highest healing values."] = "Alternar el seguimiento de los valores de sanación más altos."</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,11 +1477,11 @@
       </c>
       <c r="C39" s="3" t="str">
         <f aca="false">"L["""&amp;A39&amp;"""] = true"</f>
-        <v>L["Change color of lowest damage values."] = true</v>
+        <v>L["Change color of highest healing values."] = true</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">"L["""&amp;A39&amp;"""] = """ &amp; B39 &amp; """"</f>
-        <v>L["Change color of lowest damage values."] = "Cambia el color de los valores de daño más bajos."</v>
+        <v>L["Change color of highest healing values."] = "Cambia el color de los valores más altos de sanación."</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,14 +1493,14 @@
       </c>
       <c r="C40" s="3" t="str">
         <f aca="false">"L["""&amp;A40&amp;"""] = true"</f>
-        <v>L["White hits"] = true</v>
+        <v>L["Lowest values"] = true</v>
       </c>
       <c r="D40" s="1" t="str">
         <f aca="false">"L["""&amp;A40&amp;"""] = """ &amp; B40 &amp; """"</f>
-        <v>L["White hits"] = "Golpes blancos"</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Lowest values"] = "Valores más bajos"</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -1431,11 +1509,11 @@
       </c>
       <c r="C41" s="3" t="str">
         <f aca="false">"L["""&amp;A41&amp;"""] = true"</f>
-        <v>L["Normal white hits"] = true</v>
+        <v>L["Toggle traking lowest healing values."] = true</v>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">"L["""&amp;A41&amp;"""] = """ &amp; B41 &amp; """"</f>
-        <v>L["Normal white hits"] = "Golpes blancos normales"</v>
+        <v>L["Toggle traking lowest healing values."] = "Alterna el seguimiento de los valores de sanación mas bajos."</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1447,14 +1525,14 @@
       </c>
       <c r="C42" s="3" t="str">
         <f aca="false">"L["""&amp;A42&amp;"""] = true"</f>
-        <v>L["Toggle tracking normal white hits."] = true</v>
+        <v>L["Change color of lowest healing values."] = true</v>
       </c>
       <c r="D42" s="1" t="str">
         <f aca="false">"L["""&amp;A42&amp;"""] = """ &amp; B42 &amp; """"</f>
-        <v>L["Toggle tracking normal white hits."] = "Alterna el seguimiento de los golpes blancos normales."</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Change color of lowest healing values."] = "Cambia el color de los valores más bajos de sanación."</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -1463,11 +1541,11 @@
       </c>
       <c r="C43" s="3" t="str">
         <f aca="false">"L["""&amp;A43&amp;"""] = true"</f>
-        <v>L["Change color of normal white hits text."] = true</v>
+        <v>L["Harmful"] = true</v>
       </c>
       <c r="D43" s="1" t="str">
         <f aca="false">"L["""&amp;A43&amp;"""] = """ &amp; B43 &amp; """"</f>
-        <v>L["Change color of normal white hits text."] = "Cambia el color de texto de los golpes blancos normales."</v>
+        <v>L["Harmful"] = "Dañinos"</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,11 +1557,11 @@
       </c>
       <c r="C44" s="3" t="str">
         <f aca="false">"L["""&amp;A44&amp;"""] = true"</f>
-        <v>L["Critical white hits"] = true</v>
+        <v>L["Normal damage"] = true</v>
       </c>
       <c r="D44" s="1" t="str">
         <f aca="false">"L["""&amp;A44&amp;"""] = """ &amp; B44 &amp; """"</f>
-        <v>L["Critical white hits"] = "Golpes blancos críticos"</v>
+        <v>L["Normal damage"] = "Daño normal"</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,11 +1573,11 @@
       </c>
       <c r="C45" s="3" t="str">
         <f aca="false">"L["""&amp;A45&amp;"""] = true"</f>
-        <v>L["Toggle tracking critical white hits."] = true</v>
+        <v>L["Toggle tracking normal damage."] = true</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">"L["""&amp;A45&amp;"""] = """ &amp; B45 &amp; """"</f>
-        <v>L["Toggle tracking critical white hits."] = "Alterna el seguimiento de los golpes blancos críticos."</v>
+        <v>L["Toggle tracking normal damage."] = "Alterna el seguimiento de daño normal."</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,14 +1589,14 @@
       </c>
       <c r="C46" s="3" t="str">
         <f aca="false">"L["""&amp;A46&amp;"""] = true"</f>
-        <v>L["Change color of critical white hits text."] = true</v>
+        <v>L["Change color of normal damage text."] = true</v>
       </c>
       <c r="D46" s="1" t="str">
         <f aca="false">"L["""&amp;A46&amp;"""] = """ &amp; B46 &amp; """"</f>
-        <v>L["Change color of critical white hits text."] = "Cambia el color de texto de los golpes blancos críticos."</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Change color of normal damage text."] = "Cambia el color de texto del daño normal."</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -1527,11 +1605,11 @@
       </c>
       <c r="C47" s="3" t="str">
         <f aca="false">"L["""&amp;A47&amp;"""] = true"</f>
-        <v>L["Toggle traking highest white hits values."] = true</v>
+        <v>L["Critical damage"] = true</v>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">"L["""&amp;A47&amp;"""] = """ &amp; B47 &amp; """"</f>
-        <v>L["Toggle traking highest white hits values."] = "Alterna el seguimiento de los valores de golpes blancos más altos."</v>
+        <v>L["Critical damage"] = "Daño crítico"</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1543,11 +1621,11 @@
       </c>
       <c r="C48" s="3" t="str">
         <f aca="false">"L["""&amp;A48&amp;"""] = true"</f>
-        <v>L["Change color of highest white hits values."] = true</v>
+        <v>L["Toggle tracking critical damage."] = true</v>
       </c>
       <c r="D48" s="1" t="str">
         <f aca="false">"L["""&amp;A48&amp;"""] = """ &amp; B48 &amp; """"</f>
-        <v>L["Change color of highest white hits values."] = "Cambia el color de los valores de golpes blancos más altos."</v>
+        <v>L["Toggle tracking critical damage."] = "Alterna el seguimiento de daño crítico."</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1559,11 +1637,11 @@
       </c>
       <c r="C49" s="3" t="str">
         <f aca="false">"L["""&amp;A49&amp;"""] = true"</f>
-        <v>L["Toggle traking lowest white hits values."] = true</v>
+        <v>L["Change color of critical damage text."] = true</v>
       </c>
       <c r="D49" s="1" t="str">
         <f aca="false">"L["""&amp;A49&amp;"""] = """ &amp; B49 &amp; """"</f>
-        <v>L["Toggle traking lowest white hits values."] = "Alterna el seguimiento de los valores de golpes blancos más bajos."</v>
+        <v>L["Change color of critical damage text."] = "Cambiar el color del texto de daño crítico."</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,14 +1653,14 @@
       </c>
       <c r="C50" s="3" t="str">
         <f aca="false">"L["""&amp;A50&amp;"""] = true"</f>
-        <v>L["Change color of lowest white hits values."] = true</v>
+        <v>L["Toggle traking highest damage values."] = true</v>
       </c>
       <c r="D50" s="1" t="str">
         <f aca="false">"L["""&amp;A50&amp;"""] = """ &amp; B50 &amp; """"</f>
-        <v>L["Change color of lowest white hits values."] = "Cambia el color de los valores de golpes blancos más bajos."</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Toggle traking highest damage values."] = "Alterna el seguimiento de los valores de daño más altos."</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
         <v>100</v>
       </c>
@@ -1591,14 +1669,14 @@
       </c>
       <c r="C51" s="3" t="str">
         <f aca="false">"L["""&amp;A51&amp;"""] = true"</f>
-        <v>L["Hit:"] = true</v>
+        <v>L["Change color of highest damage values."] = true</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">"L["""&amp;A51&amp;"""] = """ &amp; B51 &amp; """"</f>
-        <v>L["Hit:"] = "Daño normal:"</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Change color of highest damage values."] = "Cambia el color de los valores de daño más altos."</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -1607,14 +1685,14 @@
       </c>
       <c r="C52" s="3" t="str">
         <f aca="false">"L["""&amp;A52&amp;"""] = true"</f>
-        <v>L["Hit crit.:"] = true</v>
+        <v>L["Toggle traking lowest damage values."] = true</v>
       </c>
       <c r="D52" s="1" t="str">
         <f aca="false">"L["""&amp;A52&amp;"""] = """ &amp; B52 &amp; """"</f>
-        <v>L["Hit crit.:"] = "Daño crítico:"</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Toggle traking lowest damage values."] = "Alterna el seguimiento de los valores de daño más bajos."</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -1623,11 +1701,11 @@
       </c>
       <c r="C53" s="3" t="str">
         <f aca="false">"L["""&amp;A53&amp;"""] = true"</f>
-        <v>L["Heal:"] = true</v>
+        <v>L["Change color of lowest damage values."] = true</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">"L["""&amp;A53&amp;"""] = """ &amp; B53 &amp; """"</f>
-        <v>L["Heal:"] = "Sanación:"</v>
+        <v>L["Change color of lowest damage values."] = "Cambia el color de los valores de daño más bajos."</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1639,11 +1717,11 @@
       </c>
       <c r="C54" s="3" t="str">
         <f aca="false">"L["""&amp;A54&amp;"""] = true"</f>
-        <v>L["Heal crit.:"] = true</v>
+        <v>L["White hits"] = true</v>
       </c>
       <c r="D54" s="1" t="str">
         <f aca="false">"L["""&amp;A54&amp;"""] = """ &amp; B54 &amp; """"</f>
-        <v>L["Heal crit.:"] = "Sanación crítica:"</v>
+        <v>L["White hits"] = "Golpes blancos"</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1655,14 +1733,14 @@
       </c>
       <c r="C55" s="3" t="str">
         <f aca="false">"L["""&amp;A55&amp;"""] = true"</f>
-        <v>L["Disabled"] = true</v>
+        <v>L["Normal white hits"] = true</v>
       </c>
       <c r="D55" s="1" t="str">
         <f aca="false">"L["""&amp;A55&amp;"""] = """ &amp; B55 &amp; """"</f>
-        <v>L["Disabled"] = "Deshabilitado"</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Normal white hits"] = "Golpes blancos normales"</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -1671,11 +1749,11 @@
       </c>
       <c r="C56" s="3" t="str">
         <f aca="false">"L["""&amp;A56&amp;"""] = true"</f>
-        <v>L["Enabled"] = true</v>
+        <v>L["Toggle tracking normal white hits."] = true</v>
       </c>
       <c r="D56" s="1" t="str">
         <f aca="false">"L["""&amp;A56&amp;"""] = """ &amp; B56 &amp; """"</f>
-        <v>L["Enabled"] = "Habilitado"</v>
+        <v>L["Toggle tracking normal white hits."] = "Alterna el seguimiento de los golpes blancos normales."</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1687,14 +1765,14 @@
       </c>
       <c r="C57" s="3" t="str">
         <f aca="false">"L["""&amp;A57&amp;"""] = true"</f>
-        <v>L["|c%s%s|r critics tracking"] = true</v>
+        <v>L["Change color of normal white hits text."] = true</v>
       </c>
       <c r="D57" s="1" t="str">
         <f aca="false">"L["""&amp;A57&amp;"""] = """ &amp; B57 &amp; """"</f>
-        <v>L["|c%s%s|r critics tracking"] = "Seguimiento de críticos |c%s%s|r"</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Change color of normal white hits text."] = "Cambia el color de texto de los golpes blancos normales."</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -1703,14 +1781,14 @@
       </c>
       <c r="C58" s="3" t="str">
         <f aca="false">"L["""&amp;A58&amp;"""] = true"</f>
-        <v>L["Critics tracking initialized"] = true</v>
+        <v>L["Critical white hits"] = true</v>
       </c>
       <c r="D58" s="1" t="str">
         <f aca="false">"L["""&amp;A58&amp;"""] = """ &amp; B58 &amp; """"</f>
-        <v>L["Critics tracking initialized"] = "Seguimiento de críticos inicializado"</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Critical white hits"] = "Golpes blancos críticos"</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -1719,11 +1797,11 @@
       </c>
       <c r="C59" s="3" t="str">
         <f aca="false">"L["""&amp;A59&amp;"""] = true"</f>
-        <v>L["Attack"] = true</v>
+        <v>L["Toggle tracking critical white hits."] = true</v>
       </c>
       <c r="D59" s="1" t="str">
         <f aca="false">"L["""&amp;A59&amp;"""] = """ &amp; B59 &amp; """"</f>
-        <v>L["Attack"] = "Atacar"</v>
+        <v>L["Toggle tracking critical white hits."] = "Alterna el seguimiento de los golpes blancos críticos."</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1735,11 +1813,11 @@
       </c>
       <c r="C60" s="3" t="str">
         <f aca="false">"L["""&amp;A60&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r critical hit:"] = true</v>
+        <v>L["Change color of critical white hits text."] = true</v>
       </c>
       <c r="D60" s="1" t="str">
         <f aca="false">"L["""&amp;A60&amp;"""] = """ &amp; B60 &amp; """"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r critical hit:"] = "Nuevo daño crítico |c%smás alto|r y |c%smás bajo|r:"</v>
+        <v>L["Change color of critical white hits text."] = "Cambia el color de texto de los golpes blancos críticos."</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1751,11 +1829,11 @@
       </c>
       <c r="C61" s="3" t="str">
         <f aca="false">"L["""&amp;A61&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r critical hit:"] = true</v>
+        <v>L["Toggle traking highest white hits values."] = true</v>
       </c>
       <c r="D61" s="1" t="str">
         <f aca="false">"L["""&amp;A61&amp;"""] = """ &amp; B61 &amp; """"</f>
-        <v>L["New |c%shighest|r critical hit:"] = "Nuevo daño crítico |c%smás alto|r:"</v>
+        <v>L["Toggle traking highest white hits values."] = "Alterna el seguimiento de los valores de golpes blancos más altos."</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,11 +1845,11 @@
       </c>
       <c r="C62" s="3" t="str">
         <f aca="false">"L["""&amp;A62&amp;"""] = true"</f>
-        <v>L["New |c%slowest|r critical hit:"] = true</v>
+        <v>L["Change color of highest white hits values."] = true</v>
       </c>
       <c r="D62" s="1" t="str">
         <f aca="false">"L["""&amp;A62&amp;"""] = """ &amp; B62 &amp; """"</f>
-        <v>L["New |c%slowest|r critical hit:"] = "Nuevo daño crítico |c%smás bajo|r:"</v>
+        <v>L["Change color of highest white hits values."] = "Cambia el color de los valores de golpes blancos más altos."</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1783,11 +1861,11 @@
       </c>
       <c r="C63" s="3" t="str">
         <f aca="false">"L["""&amp;A63&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r normal hit:"] = true</v>
+        <v>L["Toggle traking lowest white hits values."] = true</v>
       </c>
       <c r="D63" s="1" t="str">
         <f aca="false">"L["""&amp;A63&amp;"""] = """ &amp; B63 &amp; """"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r normal hit:"] = "Nuevo daño normal |c%smás alto|r y |c%smás bajo|r:"</v>
+        <v>L["Toggle traking lowest white hits values."] = "Alterna el seguimiento de los valores de golpes blancos más bajos."</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1799,14 +1877,14 @@
       </c>
       <c r="C64" s="3" t="str">
         <f aca="false">"L["""&amp;A64&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r normal hit:"] = true</v>
+        <v>L["Change color of lowest white hits values."] = true</v>
       </c>
       <c r="D64" s="1" t="str">
         <f aca="false">"L["""&amp;A64&amp;"""] = """ &amp; B64 &amp; """"</f>
-        <v>L["New |c%shighest|r normal hit:"] = "Nuevo daño normal |c%smás alto|r:"</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Change color of lowest white hits values."] = "Cambia el color de los valores de golpes blancos más bajos."</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
@@ -1815,14 +1893,14 @@
       </c>
       <c r="C65" s="3" t="str">
         <f aca="false">"L["""&amp;A65&amp;"""] = true"</f>
-        <v>L["New |c%slowest|r normal hit:"] = true</v>
+        <v>L["Hit:"] = true</v>
       </c>
       <c r="D65" s="1" t="str">
         <f aca="false">"L["""&amp;A65&amp;"""] = """ &amp; B65 &amp; """"</f>
-        <v>L["New |c%slowest|r normal hit:"] = "Nuevo daño normal |c%smás bajo|r:"</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Hit:"] = "Daño normal:"</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
         <v>130</v>
       </c>
@@ -1831,14 +1909,14 @@
       </c>
       <c r="C66" s="3" t="str">
         <f aca="false">"L["""&amp;A66&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r critical heal:"] = true</v>
+        <v>L["Hit crit.:"] = true</v>
       </c>
       <c r="D66" s="1" t="str">
         <f aca="false">"L["""&amp;A66&amp;"""] = """ &amp; B66 &amp; """"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r critical heal:"] = "Nueva sanación crítica |c%smás alta|r y |c%smás baja|r:"</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Hit crit.:"] = "Daño crítico:"</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -1847,14 +1925,14 @@
       </c>
       <c r="C67" s="3" t="str">
         <f aca="false">"L["""&amp;A67&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r critical heal:"] = true</v>
+        <v>L["Heal:"] = true</v>
       </c>
       <c r="D67" s="1" t="str">
         <f aca="false">"L["""&amp;A67&amp;"""] = """ &amp; B67 &amp; """"</f>
-        <v>L["New |c%shighest|r critical heal:"] = "Nueva sanación crítica |c%smás alta|r:"</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Heal:"] = "Sanación:"</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -1863,14 +1941,14 @@
       </c>
       <c r="C68" s="3" t="str">
         <f aca="false">"L["""&amp;A68&amp;"""] = true"</f>
-        <v>L["New |c%slowest|r critical heal:"] = true</v>
+        <v>L["Heal crit.:"] = true</v>
       </c>
       <c r="D68" s="1" t="str">
         <f aca="false">"L["""&amp;A68&amp;"""] = """ &amp; B68 &amp; """"</f>
-        <v>L["New |c%slowest|r critical heal:"] = "Nueva sanación crítica |c%smás baja|r:"</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Heal crit.:"] = "Sanación crítica:"</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -1879,14 +1957,14 @@
       </c>
       <c r="C69" s="3" t="str">
         <f aca="false">"L["""&amp;A69&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r normal heal:"] = true</v>
+        <v>L["Disabled"] = true</v>
       </c>
       <c r="D69" s="1" t="str">
         <f aca="false">"L["""&amp;A69&amp;"""] = """ &amp; B69 &amp; """"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r normal heal:"] = "Nueva sanación normal |c%smás alta|r y |c%smás baja|r:"</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Disabled"] = "Deshabilitado"</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -1895,11 +1973,11 @@
       </c>
       <c r="C70" s="3" t="str">
         <f aca="false">"L["""&amp;A70&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r normal heal:"] = true</v>
+        <v>L["Enabled"] = true</v>
       </c>
       <c r="D70" s="1" t="str">
         <f aca="false">"L["""&amp;A70&amp;"""] = """ &amp; B70 &amp; """"</f>
-        <v>L["New |c%shighest|r normal heal:"] = "Nueva sanación normal |c%smás alta|r:"</v>
+        <v>L["Enabled"] = "Habilitado"</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,14 +1989,14 @@
       </c>
       <c r="C71" s="3" t="str">
         <f aca="false">"L["""&amp;A71&amp;"""] = true"</f>
-        <v>L["New |c%slowest|r normal heal:"] = true</v>
+        <v>L["|c%s%s|r critics tracking"] = true</v>
       </c>
       <c r="D71" s="1" t="str">
         <f aca="false">"L["""&amp;A71&amp;"""] = """ &amp; B71 &amp; """"</f>
-        <v>L["New |c%slowest|r normal heal:"] = "Nueva sanación normal |c%smás baja|r:"</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["|c%s%s|r critics tracking"] = "Seguimiento de críticos |c%s%s|r"</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -1927,283 +2005,283 @@
       </c>
       <c r="C72" s="3" t="str">
         <f aca="false">"L["""&amp;A72&amp;"""] = true"</f>
-        <v>L["LogBook critics management window"] = true</v>
+        <v>L["Attack"] = true</v>
       </c>
       <c r="D72" s="1" t="str">
         <f aca="false">"L["""&amp;A72&amp;"""] = """ &amp; B72 &amp; """"</f>
-        <v>L["LogBook critics management window"] = "Ventana de gestión de críticos de LogBook"</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Attack"] = "Atacar"</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C73" s="3" t="str">
         <f aca="false">"L["""&amp;A73&amp;"""] = true"</f>
-        <v>L["ID"] = true</v>
+        <v>L["New |c%shighest|r and |c%slowest|r critical hit:"] = true</v>
       </c>
       <c r="D73" s="1" t="str">
         <f aca="false">"L["""&amp;A73&amp;"""] = """ &amp; B73 &amp; """"</f>
-        <v>L["ID"] = "ID"</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%shighest|r and |c%slowest|r critical hit:"] = "Nuevo daño crítico |c%smás alto|r y |c%smás bajo|r:"</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C74" s="3" t="str">
         <f aca="false">"L["""&amp;A74&amp;"""] = true"</f>
-        <v>L["ID of the spell."] = true</v>
+        <v>L["New |c%shighest|r critical hit:"] = true</v>
       </c>
       <c r="D74" s="1" t="str">
         <f aca="false">"L["""&amp;A74&amp;"""] = """ &amp; B74 &amp; """"</f>
-        <v>L["ID of the spell."] = "ID hechizo."</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%shighest|r critical hit:"] = "Nuevo daño crítico |c%smás alto|r:"</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C75" s="3" t="str">
         <f aca="false">"L["""&amp;A75&amp;"""] = true"</f>
-        <v>L["Spell name"] = true</v>
+        <v>L["New |c%slowest|r critical hit:"] = true</v>
       </c>
       <c r="D75" s="1" t="str">
         <f aca="false">"L["""&amp;A75&amp;"""] = """ &amp; B75 &amp; """"</f>
-        <v>L["Spell name"] = "Hechizo"</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%slowest|r critical hit:"] = "Nuevo daño crítico |c%smás bajo|r:"</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C76" s="3" t="str">
         <f aca="false">"L["""&amp;A76&amp;"""] = true"</f>
-        <v>L["Spell name and rank."] = true</v>
+        <v>L["New |c%shighest|r and |c%slowest|r normal hit:"] = true</v>
       </c>
       <c r="D76" s="1" t="str">
         <f aca="false">"L["""&amp;A76&amp;"""] = """ &amp; B76 &amp; """"</f>
-        <v>L["Spell name and rank."] = "Hechizo y rango."</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%shighest|r and |c%slowest|r normal hit:"] = "Nuevo daño normal |c%smás alto|r y |c%smás bajo|r:"</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C77" s="3" t="str">
         <f aca="false">"L["""&amp;A77&amp;"""] = true"</f>
-        <v>L["Normal"] = true</v>
+        <v>L["New |c%shighest|r normal hit:"] = true</v>
       </c>
       <c r="D77" s="1" t="str">
         <f aca="false">"L["""&amp;A77&amp;"""] = """ &amp; B77 &amp; """"</f>
-        <v>L["Normal"] = "Normal"</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%shighest|r normal hit:"] = "Nuevo daño normal |c%smás alto|r:"</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C78" s="3" t="str">
         <f aca="false">"L["""&amp;A78&amp;"""] = true"</f>
-        <v>L["Normal hit or heal."] = true</v>
+        <v>L["New |c%slowest|r normal hit:"] = true</v>
       </c>
       <c r="D78" s="1" t="str">
         <f aca="false">"L["""&amp;A78&amp;"""] = """ &amp; B78 &amp; """"</f>
-        <v>L["Normal hit or heal."] = "Daño o sanación normal."</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%slowest|r normal hit:"] = "Nuevo daño normal |c%smás bajo|r:"</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C79" s="3" t="str">
         <f aca="false">"L["""&amp;A79&amp;"""] = true"</f>
-        <v>L["Critic"] = true</v>
+        <v>L["New |c%shighest|r and |c%slowest|r critical heal:"] = true</v>
       </c>
       <c r="D79" s="1" t="str">
         <f aca="false">"L["""&amp;A79&amp;"""] = """ &amp; B79 &amp; """"</f>
-        <v>L["Critic"] = "Crítico"</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%shighest|r and |c%slowest|r critical heal:"] = "Nueva sanación crítica |c%smás alta|r y |c%smás baja|r:"</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C80" s="3" t="str">
         <f aca="false">"L["""&amp;A80&amp;"""] = true"</f>
-        <v>L["Critic hit or heal."] = true</v>
+        <v>L["New |c%shighest|r critical heal:"] = true</v>
       </c>
       <c r="D80" s="1" t="str">
         <f aca="false">"L["""&amp;A80&amp;"""] = """ &amp; B80 &amp; """"</f>
-        <v>L["Critic hit or heal."] = "Daño o sanación crítica."</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%shighest|r critical heal:"] = "Nueva sanación crítica |c%smás alta|r:"</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C81" s="3" t="str">
         <f aca="false">"L["""&amp;A81&amp;"""] = true"</f>
-        <v>L["Spell list"] = true</v>
+        <v>L["New |c%slowest|r critical heal:"] = true</v>
       </c>
       <c r="D81" s="1" t="str">
         <f aca="false">"L["""&amp;A81&amp;"""] = """ &amp; B81 &amp; """"</f>
-        <v>L["Spell list"] = "Lista de hechizos"</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%slowest|r critical heal:"] = "Nueva sanación crítica |c%smás baja|r:"</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C82" s="3" t="str">
         <f aca="false">"L["""&amp;A82&amp;"""] = true"</f>
-        <v>L["Various classes"] = true</v>
+        <v>L["New |c%shighest|r and |c%slowest|r normal heal:"] = true</v>
       </c>
       <c r="D82" s="1" t="str">
         <f aca="false">"L["""&amp;A82&amp;"""] = """ &amp; B82 &amp; """"</f>
-        <v>L["Various classes"] = "Varias clases"</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%shighest|r and |c%slowest|r normal heal:"] = "Nueva sanación normal |c%smás alta|r y |c%smás baja|r:"</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C83" s="3" t="str">
         <f aca="false">"L["""&amp;A83&amp;"""] = true"</f>
-        <v>L["Filter"] = true</v>
+        <v>L["New |c%shighest|r normal heal:"] = true</v>
       </c>
       <c r="D83" s="1" t="str">
         <f aca="false">"L["""&amp;A83&amp;"""] = """ &amp; B83 &amp; """"</f>
-        <v>L["Filter"] = "Filtro"</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%shighest|r normal heal:"] = "Nueva sanación normal |c%smás alta|r:"</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C84" s="3" t="str">
         <f aca="false">"L["""&amp;A84&amp;"""] = true"</f>
-        <v>L["Realm"] = true</v>
+        <v>L["New |c%slowest|r normal heal:"] = true</v>
       </c>
       <c r="D84" s="1" t="str">
         <f aca="false">"L["""&amp;A84&amp;"""] = """ &amp; B84 &amp; """"</f>
-        <v>L["Realm"] = "Reino"</v>
+        <v>L["New |c%slowest|r normal heal:"] = "Nueva sanación normal |c%smás baja|r:"</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C85" s="3" t="str">
         <f aca="false">"L["""&amp;A85&amp;"""] = true"</f>
-        <v>L["Character"] = true</v>
+        <v>L["ID"] = true</v>
       </c>
       <c r="D85" s="1" t="str">
         <f aca="false">"L["""&amp;A85&amp;"""] = """ &amp; B85 &amp; """"</f>
-        <v>L["Character"] = "Personaje"</v>
+        <v>L["ID"] = "ID"</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C86" s="3" t="str">
         <f aca="false">"L["""&amp;A86&amp;"""] = true"</f>
-        <v>L["Type"] = true</v>
+        <v>L["ID of the spell."] = true</v>
       </c>
       <c r="D86" s="1" t="str">
         <f aca="false">"L["""&amp;A86&amp;"""] = """ &amp; B86 &amp; """"</f>
-        <v>L["Type"] = "Tipo"</v>
+        <v>L["ID of the spell."] = "ID hechizo."</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C87" s="3" t="str">
         <f aca="false">"L["""&amp;A87&amp;"""] = true"</f>
-        <v>L["Search criteria"] = true</v>
+        <v>L["Spell name"] = true</v>
       </c>
       <c r="D87" s="1" t="str">
         <f aca="false">"L["""&amp;A87&amp;"""] = """ &amp; B87 &amp; """"</f>
-        <v>L["Search criteria"] = "Criterio de búsqueda"</v>
+        <v>L["Spell name"] = "Hechizo"</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C88" s="3" t="str">
         <f aca="false">"L["""&amp;A88&amp;"""] = true"</f>
-        <v>L["All"] = true</v>
+        <v>L["Spell name and rank."] = true</v>
       </c>
       <c r="D88" s="1" t="str">
         <f aca="false">"L["""&amp;A88&amp;"""] = """ &amp; B88 &amp; """"</f>
-        <v>L["All"] = "Todos"</v>
+        <v>L["Spell name and rank."] = "Hechizo y rango."</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C89" s="3" t="str">
         <f aca="false">"L["""&amp;A89&amp;"""] = true"</f>
-        <v>L["Back"] = true</v>
+        <v>L["Normal"] = true</v>
       </c>
       <c r="D89" s="1" t="str">
         <f aca="false">"L["""&amp;A89&amp;"""] = """ &amp; B89 &amp; """"</f>
-        <v>L["Back"] = "Volver"</v>
+        <v>L["Normal"] = "Normal"</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,12 +2293,223 @@
       </c>
       <c r="C90" s="3" t="str">
         <f aca="false">"L["""&amp;A90&amp;"""] = true"</f>
-        <v>L["Settings"] = true</v>
+        <v>L["Normal hit or heal."] = true</v>
       </c>
       <c r="D90" s="1" t="str">
         <f aca="false">"L["""&amp;A90&amp;"""] = """ &amp; B90 &amp; """"</f>
+        <v>L["Normal hit or heal."] = "Daño o sanación normal."</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C91" s="3" t="str">
+        <f aca="false">"L["""&amp;A91&amp;"""] = true"</f>
+        <v>L["Critic"] = true</v>
+      </c>
+      <c r="D91" s="1" t="str">
+        <f aca="false">"L["""&amp;A91&amp;"""] = """ &amp; B91 &amp; """"</f>
+        <v>L["Critic"] = "Crítico"</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C92" s="3" t="str">
+        <f aca="false">"L["""&amp;A92&amp;"""] = true"</f>
+        <v>L["Critic hit or heal."] = true</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <f aca="false">"L["""&amp;A92&amp;"""] = """ &amp; B92 &amp; """"</f>
+        <v>L["Critic hit or heal."] = "Daño o sanación crítica."</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C93" s="3" t="str">
+        <f aca="false">"L["""&amp;A93&amp;"""] = true"</f>
+        <v>L["Lock"] = true</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <f aca="false">"L["""&amp;A93&amp;"""] = """ &amp; B93 &amp; """"</f>
+        <v>L["Lock"] = "Bloquear"</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" s="3" t="str">
+        <f aca="false">"L["""&amp;A94&amp;"""] = true"</f>
+        <v>L["Lock position"] = true</v>
+      </c>
+      <c r="D94" s="1" t="str">
+        <f aca="false">"L["""&amp;A94&amp;"""] = """ &amp; B94 &amp; """"</f>
+        <v>L["Lock position"] = "Bloquear posicion"</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" s="3" t="str">
+        <f aca="false">"L["""&amp;A95&amp;"""] = true"</f>
+        <v>L["Spell list"] = true</v>
+      </c>
+      <c r="D95" s="1" t="str">
+        <f aca="false">"L["""&amp;A95&amp;"""] = """ &amp; B95 &amp; """"</f>
+        <v>L["Spell list"] = "Lista de hechizos"</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" s="3" t="str">
+        <f aca="false">"L["""&amp;A96&amp;"""] = true"</f>
+        <v>L["Various classes"] = true</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f aca="false">"L["""&amp;A96&amp;"""] = """ &amp; B96 &amp; """"</f>
+        <v>L["Various classes"] = "Varias clases"</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" s="3" t="str">
+        <f aca="false">"L["""&amp;A97&amp;"""] = true"</f>
+        <v>L["Filter"] = true</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f aca="false">"L["""&amp;A97&amp;"""] = """ &amp; B97 &amp; """"</f>
+        <v>L["Filter"] = "Filtro"</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="3" t="str">
+        <f aca="false">"L["""&amp;A98&amp;"""] = true"</f>
+        <v>L["Realm"] = true</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <f aca="false">"L["""&amp;A98&amp;"""] = """ &amp; B98 &amp; """"</f>
+        <v>L["Realm"] = "Reino"</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" s="3" t="str">
+        <f aca="false">"L["""&amp;A99&amp;"""] = true"</f>
+        <v>L["Type"] = true</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f aca="false">"L["""&amp;A99&amp;"""] = """ &amp; B99 &amp; """"</f>
+        <v>L["Type"] = "Tipo"</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" s="3" t="str">
+        <f aca="false">"L["""&amp;A100&amp;"""] = true"</f>
+        <v>L["Search criteria"] = true</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f aca="false">"L["""&amp;A100&amp;"""] = """ &amp; B100 &amp; """"</f>
+        <v>L["Search criteria"] = "Criterio de búsqueda"</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="3" t="str">
+        <f aca="false">"L["""&amp;A101&amp;"""] = true"</f>
+        <v>L["All"] = true</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f aca="false">"L["""&amp;A101&amp;"""] = """ &amp; B101 &amp; """"</f>
+        <v>L["All"] = "Todos"</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="3" t="str">
+        <f aca="false">"L["""&amp;A102&amp;"""] = true"</f>
+        <v>L["Back"] = true</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f aca="false">"L["""&amp;A102&amp;"""] = """ &amp; B102 &amp; """"</f>
+        <v>L["Back"] = "Volver"</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="3" t="str">
+        <f aca="false">"L["""&amp;A103&amp;"""] = true"</f>
+        <v>L["Settings"] = true</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f aca="false">"L["""&amp;A103&amp;"""] = """ &amp; B103 &amp; """"</f>
         <v>L["Settings"] = "Configuración"</v>
       </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/LogBookCritics/Locale/Locale.xlsx
+++ b/LogBookCritics/Locale/Locale.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="198">
   <si>
     <t xml:space="preserve">Test message</t>
   </si>
@@ -160,448 +160,430 @@
     <t xml:space="preserve">Posición Y en pantalla.</t>
   </si>
   <si>
-    <t xml:space="preserve">Maintenance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mantenimiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete character data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borrar datos de personaje</t>
+    <t xml:space="preserve">Healings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal heals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanaciones normales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle tracking normal heals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de sanaciones normales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change color of normal heals text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia el color de texto de las sanaciones normales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical heals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanaciones críticas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle tracking critical heals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de las sanaciones críticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change color of critical heals text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia el color de texto de las sanaciones críticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores más altos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle traking highest healing values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alternar el seguimiento de los valores de sanación más altos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change color of highest healing values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia el color de los valores más altos de sanación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowest values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores más bajos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle traking lowest healing values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de los valores de sanación mas bajos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change color of lowest healing values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia el color de los valores más bajos de sanación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harmful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dañinos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daño normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle tracking normal damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de daño normal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change color of normal damage text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia el color de texto del daño normal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daño crítico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle tracking critical damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de daño crítico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change color of critical damage text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar el color del texto de daño crítico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle traking highest damage values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de los valores de daño más altos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change color of highest damage values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia el color de los valores de daño más altos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle traking lowest damage values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de los valores de daño más bajos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change color of lowest damage values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia el color de los valores de daño más bajos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White hits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golpes blancos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal white hits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golpes blancos normales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle tracking normal white hits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de los golpes blancos normales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change color of normal white hits text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia el color de texto de los golpes blancos normales.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical white hits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golpes blancos críticos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle tracking critical white hits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de los golpes blancos críticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change color of critical white hits text.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia el color de texto de los golpes blancos críticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle traking highest white hits values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de los valores de golpes blancos más altos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change color of highest white hits values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia el color de los valores de golpes blancos más altos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle traking lowest white hits values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alterna el seguimiento de los valores de golpes blancos más bajos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change color of lowest white hits values.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambia el color de los valores de golpes blancos más bajos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daño normal:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hit crit.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daño crítico:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanación:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal crit.:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanación crítica:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deshabilitado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habilitado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">|c%s%s|r critics tracking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seguimiento de críticos |c%s%s|r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atacar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New |c%shighest|r and |c%slowest|r critical hit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo daño crítico |c%smás alto|r y |c%smás bajo|r:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New |c%shighest|r critical hit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo daño crítico |c%smás alto|r:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New |c%slowest|r critical hit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo daño crítico |c%smás bajo|r:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New |c%shighest|r and |c%slowest|r normal hit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo daño normal |c%smás alto|r y |c%smás bajo|r:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New |c%shighest|r normal hit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo daño normal |c%smás alto|r:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New |c%slowest|r normal hit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuevo daño normal |c%smás bajo|r:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New |c%shighest|r and |c%slowest|r critical heal:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nueva sanación crítica |c%smás alta|r y |c%smás baja|r:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New |c%shighest|r critical heal:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nueva sanación crítica |c%smás alta|r:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New |c%slowest|r critical heal:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nueva sanación crítica |c%smás baja|r:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New |c%shighest|r and |c%slowest|r normal heal:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nueva sanación normal |c%smás alta|r y |c%smás baja|r:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New |c%shighest|r normal heal:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nueva sanación normal |c%smás alta|r:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New |c%slowest|r normal heal:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nueva sanación normal |c%smás baja|r:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID of the spell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID hechizo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spell name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hechizo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spell name and rank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hechizo y rango.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal hit or heal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daño o sanación normal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crítico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critic hit or heal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daño o sanación crítica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloquear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lock position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloquear posicion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spell list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de hechizos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Various classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varias clases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Borrar entrada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you sure you want to delete this entry?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">¿Está seguro de que desea eliminar esta entrada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reino</t>
   </si>
   <si>
     <t xml:space="preserve">Character</t>
   </si>
   <si>
     <t xml:space="preserve">Personaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Character name.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nombre del personaje.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Borrar entrada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are you sure you want to delete this entry?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Está seguro de que desea eliminar esta entrada?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal heals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanaciones normales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle tracking normal heals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de sanaciones normales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change color of normal heals text.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambia el color de texto de las sanaciones normales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical heals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanaciones críticas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle tracking critical heals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de las sanaciones críticas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change color of critical heals text.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambia el color de texto de las sanaciones críticas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highest values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valores más altos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle traking highest healing values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alternar el seguimiento de los valores de sanación más altos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change color of highest healing values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambia el color de los valores más altos de sanación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowest values</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Valores más bajos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle traking lowest healing values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de los valores de sanación mas bajos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change color of lowest healing values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambia el color de los valores más bajos de sanación.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Harmful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dañinos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daño normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle tracking normal damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de daño normal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change color of normal damage text.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambia el color de texto del daño normal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daño crítico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle tracking critical damage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de daño crítico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change color of critical damage text.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambiar el color del texto de daño crítico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle traking highest damage values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de los valores de daño más altos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change color of highest damage values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambia el color de los valores de daño más altos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle traking lowest damage values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de los valores de daño más bajos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change color of lowest damage values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambia el color de los valores de daño más bajos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White hits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golpes blancos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal white hits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golpes blancos normales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle tracking normal white hits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de los golpes blancos normales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change color of normal white hits text.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambia el color de texto de los golpes blancos normales.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critical white hits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Golpes blancos críticos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle tracking critical white hits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de los golpes blancos críticos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change color of critical white hits text.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambia el color de texto de los golpes blancos críticos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle traking highest white hits values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de los valores de golpes blancos más altos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change color of highest white hits values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambia el color de los valores de golpes blancos más altos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toggle traking lowest white hits values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alterna el seguimiento de los valores de golpes blancos más bajos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change color of lowest white hits values.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambia el color de los valores de golpes blancos más bajos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daño normal:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hit crit.:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daño crítico:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heal:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanación:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heal crit.:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sanación crítica:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deshabilitado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habilitado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">|c%s%s|r critics tracking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seguimiento de críticos |c%s%s|r</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atacar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New |c%shighest|r and |c%slowest|r critical hit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo daño crítico |c%smás alto|r y |c%smás bajo|r:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New |c%shighest|r critical hit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo daño crítico |c%smás alto|r:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New |c%slowest|r critical hit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo daño crítico |c%smás bajo|r:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New |c%shighest|r and |c%slowest|r normal hit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo daño normal |c%smás alto|r y |c%smás bajo|r:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New |c%shighest|r normal hit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo daño normal |c%smás alto|r:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New |c%slowest|r normal hit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nuevo daño normal |c%smás bajo|r:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New |c%shighest|r and |c%slowest|r critical heal:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nueva sanación crítica |c%smás alta|r y |c%smás baja|r:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New |c%shighest|r critical heal:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nueva sanación crítica |c%smás alta|r:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New |c%slowest|r critical heal:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nueva sanación crítica |c%smás baja|r:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New |c%shighest|r and |c%slowest|r normal heal:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nueva sanación normal |c%smás alta|r y |c%smás baja|r:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New |c%shighest|r normal heal:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nueva sanación normal |c%smás alta|r:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New |c%slowest|r normal heal:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nueva sanación normal |c%smás baja|r:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID of the spell.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID hechizo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spell name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hechizo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spell name and rank.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hechizo y rango.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal hit or heal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daño o sanación normal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crítico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Critic hit or heal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daño o sanación crítica.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloquear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloquear posicion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spell list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lista de hechizos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Various classes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varias clases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Filtro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reino</t>
   </si>
   <si>
     <t xml:space="preserve">Type</t>
@@ -849,7 +831,7 @@
   <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D103" activeCellId="0" sqref="D1:D103"/>
+      <selection pane="topLeft" activeCell="D100" activeCellId="0" sqref="D1:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1237,11 +1219,11 @@
       </c>
       <c r="C24" s="3" t="str">
         <f aca="false">"L["""&amp;A24&amp;"""] = true"</f>
-        <v>L["Maintenance"] = true</v>
+        <v>L["Healings"] = true</v>
       </c>
       <c r="D24" s="1" t="str">
         <f aca="false">"L["""&amp;A24&amp;"""] = """ &amp; B24 &amp; """"</f>
-        <v>L["Maintenance"] = "Mantenimiento"</v>
+        <v>L["Healings"] = "Sanaciones"</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1253,14 +1235,14 @@
       </c>
       <c r="C25" s="3" t="str">
         <f aca="false">"L["""&amp;A25&amp;"""] = true"</f>
-        <v>L["Delete character data"] = true</v>
+        <v>L["Normal heals"] = true</v>
       </c>
       <c r="D25" s="1" t="str">
         <f aca="false">"L["""&amp;A25&amp;"""] = """ &amp; B25 &amp; """"</f>
-        <v>L["Delete character data"] = "Borrar datos de personaje"</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Normal heals"] = "Sanaciones normales"</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1269,14 +1251,14 @@
       </c>
       <c r="C26" s="3" t="str">
         <f aca="false">"L["""&amp;A26&amp;"""] = true"</f>
-        <v>L["Character"] = true</v>
+        <v>L["Toggle tracking normal heals."] = true</v>
       </c>
       <c r="D26" s="1" t="str">
         <f aca="false">"L["""&amp;A26&amp;"""] = """ &amp; B26 &amp; """"</f>
-        <v>L["Character"] = "Personaje"</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Toggle tracking normal heals."] = "Alterna el seguimiento de sanaciones normales."</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1285,11 +1267,11 @@
       </c>
       <c r="C27" s="3" t="str">
         <f aca="false">"L["""&amp;A27&amp;"""] = true"</f>
-        <v>L["Character name."] = true</v>
+        <v>L["Change color of normal heals text."] = true</v>
       </c>
       <c r="D27" s="1" t="str">
         <f aca="false">"L["""&amp;A27&amp;"""] = """ &amp; B27 &amp; """"</f>
-        <v>L["Character name."] = "Nombre del personaje."</v>
+        <v>L["Change color of normal heals text."] = "Cambia el color de texto de las sanaciones normales."</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,11 +1283,11 @@
       </c>
       <c r="C28" s="3" t="str">
         <f aca="false">"L["""&amp;A28&amp;"""] = true"</f>
-        <v>L["Delete entry"] = true</v>
+        <v>L["Critical heals"] = true</v>
       </c>
       <c r="D28" s="1" t="str">
         <f aca="false">"L["""&amp;A28&amp;"""] = """ &amp; B28 &amp; """"</f>
-        <v>L["Delete entry"] = "Borrar entrada"</v>
+        <v>L["Critical heals"] = "Sanaciones críticas"</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1317,14 +1299,14 @@
       </c>
       <c r="C29" s="3" t="str">
         <f aca="false">"L["""&amp;A29&amp;"""] = true"</f>
-        <v>L["Are you sure you want to delete this entry?"] = true</v>
+        <v>L["Toggle tracking critical heals."] = true</v>
       </c>
       <c r="D29" s="1" t="str">
         <f aca="false">"L["""&amp;A29&amp;"""] = """ &amp; B29 &amp; """"</f>
-        <v>L["Are you sure you want to delete this entry?"] = "¿Está seguro de que desea eliminar esta entrada?"</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Toggle tracking critical heals."] = "Alterna el seguimiento de las sanaciones críticas."</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1333,11 +1315,11 @@
       </c>
       <c r="C30" s="3" t="str">
         <f aca="false">"L["""&amp;A30&amp;"""] = true"</f>
-        <v>L["Healings"] = true</v>
+        <v>L["Change color of critical heals text."] = true</v>
       </c>
       <c r="D30" s="1" t="str">
         <f aca="false">"L["""&amp;A30&amp;"""] = """ &amp; B30 &amp; """"</f>
-        <v>L["Healings"] = "Sanaciones"</v>
+        <v>L["Change color of critical heals text."] = "Cambia el color de texto de las sanaciones críticas."</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,11 +1331,11 @@
       </c>
       <c r="C31" s="3" t="str">
         <f aca="false">"L["""&amp;A31&amp;"""] = true"</f>
-        <v>L["Normal heals"] = true</v>
+        <v>L["Highest values"] = true</v>
       </c>
       <c r="D31" s="1" t="str">
         <f aca="false">"L["""&amp;A31&amp;"""] = """ &amp; B31 &amp; """"</f>
-        <v>L["Normal heals"] = "Sanaciones normales"</v>
+        <v>L["Highest values"] = "Valores más altos"</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,11 +1347,11 @@
       </c>
       <c r="C32" s="3" t="str">
         <f aca="false">"L["""&amp;A32&amp;"""] = true"</f>
-        <v>L["Toggle tracking normal heals."] = true</v>
+        <v>L["Toggle traking highest healing values."] = true</v>
       </c>
       <c r="D32" s="1" t="str">
         <f aca="false">"L["""&amp;A32&amp;"""] = """ &amp; B32 &amp; """"</f>
-        <v>L["Toggle tracking normal heals."] = "Alterna el seguimiento de sanaciones normales."</v>
+        <v>L["Toggle traking highest healing values."] = "Alternar el seguimiento de los valores de sanación más altos."</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1381,11 +1363,11 @@
       </c>
       <c r="C33" s="3" t="str">
         <f aca="false">"L["""&amp;A33&amp;"""] = true"</f>
-        <v>L["Change color of normal heals text."] = true</v>
+        <v>L["Change color of highest healing values."] = true</v>
       </c>
       <c r="D33" s="1" t="str">
         <f aca="false">"L["""&amp;A33&amp;"""] = """ &amp; B33 &amp; """"</f>
-        <v>L["Change color of normal heals text."] = "Cambia el color de texto de las sanaciones normales."</v>
+        <v>L["Change color of highest healing values."] = "Cambia el color de los valores más altos de sanación."</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1397,11 +1379,11 @@
       </c>
       <c r="C34" s="3" t="str">
         <f aca="false">"L["""&amp;A34&amp;"""] = true"</f>
-        <v>L["Critical heals"] = true</v>
+        <v>L["Lowest values"] = true</v>
       </c>
       <c r="D34" s="1" t="str">
         <f aca="false">"L["""&amp;A34&amp;"""] = """ &amp; B34 &amp; """"</f>
-        <v>L["Critical heals"] = "Sanaciones críticas"</v>
+        <v>L["Lowest values"] = "Valores más bajos"</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1413,11 +1395,11 @@
       </c>
       <c r="C35" s="3" t="str">
         <f aca="false">"L["""&amp;A35&amp;"""] = true"</f>
-        <v>L["Toggle tracking critical heals."] = true</v>
+        <v>L["Toggle traking lowest healing values."] = true</v>
       </c>
       <c r="D35" s="1" t="str">
         <f aca="false">"L["""&amp;A35&amp;"""] = """ &amp; B35 &amp; """"</f>
-        <v>L["Toggle tracking critical heals."] = "Alterna el seguimiento de las sanaciones críticas."</v>
+        <v>L["Toggle traking lowest healing values."] = "Alterna el seguimiento de los valores de sanación mas bajos."</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,11 +1411,11 @@
       </c>
       <c r="C36" s="3" t="str">
         <f aca="false">"L["""&amp;A36&amp;"""] = true"</f>
-        <v>L["Change color of critical heals text."] = true</v>
+        <v>L["Change color of lowest healing values."] = true</v>
       </c>
       <c r="D36" s="1" t="str">
         <f aca="false">"L["""&amp;A36&amp;"""] = """ &amp; B36 &amp; """"</f>
-        <v>L["Change color of critical heals text."] = "Cambia el color de texto de las sanaciones críticas."</v>
+        <v>L["Change color of lowest healing values."] = "Cambia el color de los valores más bajos de sanación."</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,14 +1427,14 @@
       </c>
       <c r="C37" s="3" t="str">
         <f aca="false">"L["""&amp;A37&amp;"""] = true"</f>
-        <v>L["Highest values"] = true</v>
+        <v>L["Harmful"] = true</v>
       </c>
       <c r="D37" s="1" t="str">
         <f aca="false">"L["""&amp;A37&amp;"""] = """ &amp; B37 &amp; """"</f>
-        <v>L["Highest values"] = "Valores más altos"</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Harmful"] = "Dañinos"</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
@@ -1461,11 +1443,11 @@
       </c>
       <c r="C38" s="3" t="str">
         <f aca="false">"L["""&amp;A38&amp;"""] = true"</f>
-        <v>L["Toggle traking highest healing values."] = true</v>
+        <v>L["Normal damage"] = true</v>
       </c>
       <c r="D38" s="1" t="str">
         <f aca="false">"L["""&amp;A38&amp;"""] = """ &amp; B38 &amp; """"</f>
-        <v>L["Toggle traking highest healing values."] = "Alternar el seguimiento de los valores de sanación más altos."</v>
+        <v>L["Normal damage"] = "Daño normal"</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1477,14 +1459,14 @@
       </c>
       <c r="C39" s="3" t="str">
         <f aca="false">"L["""&amp;A39&amp;"""] = true"</f>
-        <v>L["Change color of highest healing values."] = true</v>
+        <v>L["Toggle tracking normal damage."] = true</v>
       </c>
       <c r="D39" s="1" t="str">
         <f aca="false">"L["""&amp;A39&amp;"""] = """ &amp; B39 &amp; """"</f>
-        <v>L["Change color of highest healing values."] = "Cambia el color de los valores más altos de sanación."</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Toggle tracking normal damage."] = "Alterna el seguimiento de daño normal."</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
         <v>78</v>
       </c>
@@ -1493,14 +1475,14 @@
       </c>
       <c r="C40" s="3" t="str">
         <f aca="false">"L["""&amp;A40&amp;"""] = true"</f>
-        <v>L["Lowest values"] = true</v>
+        <v>L["Change color of normal damage text."] = true</v>
       </c>
       <c r="D40" s="1" t="str">
         <f aca="false">"L["""&amp;A40&amp;"""] = """ &amp; B40 &amp; """"</f>
-        <v>L["Lowest values"] = "Valores más bajos"</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Change color of normal damage text."] = "Cambia el color de texto del daño normal."</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
         <v>80</v>
       </c>
@@ -1509,11 +1491,11 @@
       </c>
       <c r="C41" s="3" t="str">
         <f aca="false">"L["""&amp;A41&amp;"""] = true"</f>
-        <v>L["Toggle traking lowest healing values."] = true</v>
+        <v>L["Critical damage"] = true</v>
       </c>
       <c r="D41" s="1" t="str">
         <f aca="false">"L["""&amp;A41&amp;"""] = """ &amp; B41 &amp; """"</f>
-        <v>L["Toggle traking lowest healing values."] = "Alterna el seguimiento de los valores de sanación mas bajos."</v>
+        <v>L["Critical damage"] = "Daño crítico"</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1525,14 +1507,14 @@
       </c>
       <c r="C42" s="3" t="str">
         <f aca="false">"L["""&amp;A42&amp;"""] = true"</f>
-        <v>L["Change color of lowest healing values."] = true</v>
+        <v>L["Toggle tracking critical damage."] = true</v>
       </c>
       <c r="D42" s="1" t="str">
         <f aca="false">"L["""&amp;A42&amp;"""] = """ &amp; B42 &amp; """"</f>
-        <v>L["Change color of lowest healing values."] = "Cambia el color de los valores más bajos de sanación."</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Toggle tracking critical damage."] = "Alterna el seguimiento de daño crítico."</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
         <v>84</v>
       </c>
@@ -1541,14 +1523,14 @@
       </c>
       <c r="C43" s="3" t="str">
         <f aca="false">"L["""&amp;A43&amp;"""] = true"</f>
-        <v>L["Harmful"] = true</v>
+        <v>L["Change color of critical damage text."] = true</v>
       </c>
       <c r="D43" s="1" t="str">
         <f aca="false">"L["""&amp;A43&amp;"""] = """ &amp; B43 &amp; """"</f>
-        <v>L["Harmful"] = "Dañinos"</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Change color of critical damage text."] = "Cambiar el color del texto de daño crítico."</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -1557,11 +1539,11 @@
       </c>
       <c r="C44" s="3" t="str">
         <f aca="false">"L["""&amp;A44&amp;"""] = true"</f>
-        <v>L["Normal damage"] = true</v>
+        <v>L["Toggle traking highest damage values."] = true</v>
       </c>
       <c r="D44" s="1" t="str">
         <f aca="false">"L["""&amp;A44&amp;"""] = """ &amp; B44 &amp; """"</f>
-        <v>L["Normal damage"] = "Daño normal"</v>
+        <v>L["Toggle traking highest damage values."] = "Alterna el seguimiento de los valores de daño más altos."</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1573,11 +1555,11 @@
       </c>
       <c r="C45" s="3" t="str">
         <f aca="false">"L["""&amp;A45&amp;"""] = true"</f>
-        <v>L["Toggle tracking normal damage."] = true</v>
+        <v>L["Change color of highest damage values."] = true</v>
       </c>
       <c r="D45" s="1" t="str">
         <f aca="false">"L["""&amp;A45&amp;"""] = """ &amp; B45 &amp; """"</f>
-        <v>L["Toggle tracking normal damage."] = "Alterna el seguimiento de daño normal."</v>
+        <v>L["Change color of highest damage values."] = "Cambia el color de los valores de daño más altos."</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,14 +1571,14 @@
       </c>
       <c r="C46" s="3" t="str">
         <f aca="false">"L["""&amp;A46&amp;"""] = true"</f>
-        <v>L["Change color of normal damage text."] = true</v>
+        <v>L["Toggle traking lowest damage values."] = true</v>
       </c>
       <c r="D46" s="1" t="str">
         <f aca="false">"L["""&amp;A46&amp;"""] = """ &amp; B46 &amp; """"</f>
-        <v>L["Change color of normal damage text."] = "Cambia el color de texto del daño normal."</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Toggle traking lowest damage values."] = "Alterna el seguimiento de los valores de daño más bajos."</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
         <v>92</v>
       </c>
@@ -1605,14 +1587,14 @@
       </c>
       <c r="C47" s="3" t="str">
         <f aca="false">"L["""&amp;A47&amp;"""] = true"</f>
-        <v>L["Critical damage"] = true</v>
+        <v>L["Change color of lowest damage values."] = true</v>
       </c>
       <c r="D47" s="1" t="str">
         <f aca="false">"L["""&amp;A47&amp;"""] = """ &amp; B47 &amp; """"</f>
-        <v>L["Critical damage"] = "Daño crítico"</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Change color of lowest damage values."] = "Cambia el color de los valores de daño más bajos."</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
         <v>94</v>
       </c>
@@ -1621,14 +1603,14 @@
       </c>
       <c r="C48" s="3" t="str">
         <f aca="false">"L["""&amp;A48&amp;"""] = true"</f>
-        <v>L["Toggle tracking critical damage."] = true</v>
+        <v>L["White hits"] = true</v>
       </c>
       <c r="D48" s="1" t="str">
         <f aca="false">"L["""&amp;A48&amp;"""] = """ &amp; B48 &amp; """"</f>
-        <v>L["Toggle tracking critical damage."] = "Alterna el seguimiento de daño crítico."</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["White hits"] = "Golpes blancos"</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -1637,11 +1619,11 @@
       </c>
       <c r="C49" s="3" t="str">
         <f aca="false">"L["""&amp;A49&amp;"""] = true"</f>
-        <v>L["Change color of critical damage text."] = true</v>
+        <v>L["Normal white hits"] = true</v>
       </c>
       <c r="D49" s="1" t="str">
         <f aca="false">"L["""&amp;A49&amp;"""] = """ &amp; B49 &amp; """"</f>
-        <v>L["Change color of critical damage text."] = "Cambiar el color del texto de daño crítico."</v>
+        <v>L["Normal white hits"] = "Golpes blancos normales"</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1653,11 +1635,11 @@
       </c>
       <c r="C50" s="3" t="str">
         <f aca="false">"L["""&amp;A50&amp;"""] = true"</f>
-        <v>L["Toggle traking highest damage values."] = true</v>
+        <v>L["Toggle tracking normal white hits."] = true</v>
       </c>
       <c r="D50" s="1" t="str">
         <f aca="false">"L["""&amp;A50&amp;"""] = """ &amp; B50 &amp; """"</f>
-        <v>L["Toggle traking highest damage values."] = "Alterna el seguimiento de los valores de daño más altos."</v>
+        <v>L["Toggle tracking normal white hits."] = "Alterna el seguimiento de los golpes blancos normales."</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1669,14 +1651,14 @@
       </c>
       <c r="C51" s="3" t="str">
         <f aca="false">"L["""&amp;A51&amp;"""] = true"</f>
-        <v>L["Change color of highest damage values."] = true</v>
+        <v>L["Change color of normal white hits text."] = true</v>
       </c>
       <c r="D51" s="1" t="str">
         <f aca="false">"L["""&amp;A51&amp;"""] = """ &amp; B51 &amp; """"</f>
-        <v>L["Change color of highest damage values."] = "Cambia el color de los valores de daño más altos."</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Change color of normal white hits text."] = "Cambia el color de texto de los golpes blancos normales."</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -1685,11 +1667,11 @@
       </c>
       <c r="C52" s="3" t="str">
         <f aca="false">"L["""&amp;A52&amp;"""] = true"</f>
-        <v>L["Toggle traking lowest damage values."] = true</v>
+        <v>L["Critical white hits"] = true</v>
       </c>
       <c r="D52" s="1" t="str">
         <f aca="false">"L["""&amp;A52&amp;"""] = """ &amp; B52 &amp; """"</f>
-        <v>L["Toggle traking lowest damage values."] = "Alterna el seguimiento de los valores de daño más bajos."</v>
+        <v>L["Critical white hits"] = "Golpes blancos críticos"</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1701,14 +1683,14 @@
       </c>
       <c r="C53" s="3" t="str">
         <f aca="false">"L["""&amp;A53&amp;"""] = true"</f>
-        <v>L["Change color of lowest damage values."] = true</v>
+        <v>L["Toggle tracking critical white hits."] = true</v>
       </c>
       <c r="D53" s="1" t="str">
         <f aca="false">"L["""&amp;A53&amp;"""] = """ &amp; B53 &amp; """"</f>
-        <v>L["Change color of lowest damage values."] = "Cambia el color de los valores de daño más bajos."</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Toggle tracking critical white hits."] = "Alterna el seguimiento de los golpes blancos críticos."</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
         <v>106</v>
       </c>
@@ -1717,14 +1699,14 @@
       </c>
       <c r="C54" s="3" t="str">
         <f aca="false">"L["""&amp;A54&amp;"""] = true"</f>
-        <v>L["White hits"] = true</v>
+        <v>L["Change color of critical white hits text."] = true</v>
       </c>
       <c r="D54" s="1" t="str">
         <f aca="false">"L["""&amp;A54&amp;"""] = """ &amp; B54 &amp; """"</f>
-        <v>L["White hits"] = "Golpes blancos"</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Change color of critical white hits text."] = "Cambia el color de texto de los golpes blancos críticos."</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -1733,11 +1715,11 @@
       </c>
       <c r="C55" s="3" t="str">
         <f aca="false">"L["""&amp;A55&amp;"""] = true"</f>
-        <v>L["Normal white hits"] = true</v>
+        <v>L["Toggle traking highest white hits values."] = true</v>
       </c>
       <c r="D55" s="1" t="str">
         <f aca="false">"L["""&amp;A55&amp;"""] = """ &amp; B55 &amp; """"</f>
-        <v>L["Normal white hits"] = "Golpes blancos normales"</v>
+        <v>L["Toggle traking highest white hits values."] = "Alterna el seguimiento de los valores de golpes blancos más altos."</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1749,11 +1731,11 @@
       </c>
       <c r="C56" s="3" t="str">
         <f aca="false">"L["""&amp;A56&amp;"""] = true"</f>
-        <v>L["Toggle tracking normal white hits."] = true</v>
+        <v>L["Change color of highest white hits values."] = true</v>
       </c>
       <c r="D56" s="1" t="str">
         <f aca="false">"L["""&amp;A56&amp;"""] = """ &amp; B56 &amp; """"</f>
-        <v>L["Toggle tracking normal white hits."] = "Alterna el seguimiento de los golpes blancos normales."</v>
+        <v>L["Change color of highest white hits values."] = "Cambia el color de los valores de golpes blancos más altos."</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1765,14 +1747,14 @@
       </c>
       <c r="C57" s="3" t="str">
         <f aca="false">"L["""&amp;A57&amp;"""] = true"</f>
-        <v>L["Change color of normal white hits text."] = true</v>
+        <v>L["Toggle traking lowest white hits values."] = true</v>
       </c>
       <c r="D57" s="1" t="str">
         <f aca="false">"L["""&amp;A57&amp;"""] = """ &amp; B57 &amp; """"</f>
-        <v>L["Change color of normal white hits text."] = "Cambia el color de texto de los golpes blancos normales."</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Toggle traking lowest white hits values."] = "Alterna el seguimiento de los valores de golpes blancos más bajos."</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>114</v>
       </c>
@@ -1781,14 +1763,14 @@
       </c>
       <c r="C58" s="3" t="str">
         <f aca="false">"L["""&amp;A58&amp;"""] = true"</f>
-        <v>L["Critical white hits"] = true</v>
+        <v>L["Change color of lowest white hits values."] = true</v>
       </c>
       <c r="D58" s="1" t="str">
         <f aca="false">"L["""&amp;A58&amp;"""] = """ &amp; B58 &amp; """"</f>
-        <v>L["Critical white hits"] = "Golpes blancos críticos"</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Change color of lowest white hits values."] = "Cambia el color de los valores de golpes blancos más bajos."</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -1797,14 +1779,14 @@
       </c>
       <c r="C59" s="3" t="str">
         <f aca="false">"L["""&amp;A59&amp;"""] = true"</f>
-        <v>L["Toggle tracking critical white hits."] = true</v>
+        <v>L["Hit:"] = true</v>
       </c>
       <c r="D59" s="1" t="str">
         <f aca="false">"L["""&amp;A59&amp;"""] = """ &amp; B59 &amp; """"</f>
-        <v>L["Toggle tracking critical white hits."] = "Alterna el seguimiento de los golpes blancos críticos."</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Hit:"] = "Daño normal:"</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
@@ -1813,14 +1795,14 @@
       </c>
       <c r="C60" s="3" t="str">
         <f aca="false">"L["""&amp;A60&amp;"""] = true"</f>
-        <v>L["Change color of critical white hits text."] = true</v>
+        <v>L["Hit crit.:"] = true</v>
       </c>
       <c r="D60" s="1" t="str">
         <f aca="false">"L["""&amp;A60&amp;"""] = """ &amp; B60 &amp; """"</f>
-        <v>L["Change color of critical white hits text."] = "Cambia el color de texto de los golpes blancos críticos."</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Hit crit.:"] = "Daño crítico:"</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
@@ -1829,14 +1811,14 @@
       </c>
       <c r="C61" s="3" t="str">
         <f aca="false">"L["""&amp;A61&amp;"""] = true"</f>
-        <v>L["Toggle traking highest white hits values."] = true</v>
+        <v>L["Heal:"] = true</v>
       </c>
       <c r="D61" s="1" t="str">
         <f aca="false">"L["""&amp;A61&amp;"""] = """ &amp; B61 &amp; """"</f>
-        <v>L["Toggle traking highest white hits values."] = "Alterna el seguimiento de los valores de golpes blancos más altos."</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Heal:"] = "Sanación:"</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -1845,14 +1827,14 @@
       </c>
       <c r="C62" s="3" t="str">
         <f aca="false">"L["""&amp;A62&amp;"""] = true"</f>
-        <v>L["Change color of highest white hits values."] = true</v>
+        <v>L["Heal crit.:"] = true</v>
       </c>
       <c r="D62" s="1" t="str">
         <f aca="false">"L["""&amp;A62&amp;"""] = """ &amp; B62 &amp; """"</f>
-        <v>L["Change color of highest white hits values."] = "Cambia el color de los valores de golpes blancos más altos."</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Heal crit.:"] = "Sanación crítica:"</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -1861,14 +1843,14 @@
       </c>
       <c r="C63" s="3" t="str">
         <f aca="false">"L["""&amp;A63&amp;"""] = true"</f>
-        <v>L["Toggle traking lowest white hits values."] = true</v>
+        <v>L["Disabled"] = true</v>
       </c>
       <c r="D63" s="1" t="str">
         <f aca="false">"L["""&amp;A63&amp;"""] = """ &amp; B63 &amp; """"</f>
-        <v>L["Toggle traking lowest white hits values."] = "Alterna el seguimiento de los valores de golpes blancos más bajos."</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Disabled"] = "Deshabilitado"</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
@@ -1877,14 +1859,14 @@
       </c>
       <c r="C64" s="3" t="str">
         <f aca="false">"L["""&amp;A64&amp;"""] = true"</f>
-        <v>L["Change color of lowest white hits values."] = true</v>
+        <v>L["Enabled"] = true</v>
       </c>
       <c r="D64" s="1" t="str">
         <f aca="false">"L["""&amp;A64&amp;"""] = """ &amp; B64 &amp; """"</f>
-        <v>L["Change color of lowest white hits values."] = "Cambia el color de los valores de golpes blancos más bajos."</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Enabled"] = "Habilitado"</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
@@ -1893,11 +1875,11 @@
       </c>
       <c r="C65" s="3" t="str">
         <f aca="false">"L["""&amp;A65&amp;"""] = true"</f>
-        <v>L["Hit:"] = true</v>
+        <v>L["|c%s%s|r critics tracking"] = true</v>
       </c>
       <c r="D65" s="1" t="str">
         <f aca="false">"L["""&amp;A65&amp;"""] = """ &amp; B65 &amp; """"</f>
-        <v>L["Hit:"] = "Daño normal:"</v>
+        <v>L["|c%s%s|r critics tracking"] = "Seguimiento de críticos |c%s%s|r"</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,14 +1891,14 @@
       </c>
       <c r="C66" s="3" t="str">
         <f aca="false">"L["""&amp;A66&amp;"""] = true"</f>
-        <v>L["Hit crit.:"] = true</v>
+        <v>L["Attack"] = true</v>
       </c>
       <c r="D66" s="1" t="str">
         <f aca="false">"L["""&amp;A66&amp;"""] = """ &amp; B66 &amp; """"</f>
-        <v>L["Hit crit.:"] = "Daño crítico:"</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Attack"] = "Atacar"</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -1925,14 +1907,14 @@
       </c>
       <c r="C67" s="3" t="str">
         <f aca="false">"L["""&amp;A67&amp;"""] = true"</f>
-        <v>L["Heal:"] = true</v>
+        <v>L["New |c%shighest|r and |c%slowest|r critical hit:"] = true</v>
       </c>
       <c r="D67" s="1" t="str">
         <f aca="false">"L["""&amp;A67&amp;"""] = """ &amp; B67 &amp; """"</f>
-        <v>L["Heal:"] = "Sanación:"</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%shighest|r and |c%slowest|r critical hit:"] = "Nuevo daño crítico |c%smás alto|r y |c%smás bajo|r:"</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -1941,14 +1923,14 @@
       </c>
       <c r="C68" s="3" t="str">
         <f aca="false">"L["""&amp;A68&amp;"""] = true"</f>
-        <v>L["Heal crit.:"] = true</v>
+        <v>L["New |c%shighest|r critical hit:"] = true</v>
       </c>
       <c r="D68" s="1" t="str">
         <f aca="false">"L["""&amp;A68&amp;"""] = """ &amp; B68 &amp; """"</f>
-        <v>L["Heal crit.:"] = "Sanación crítica:"</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%shighest|r critical hit:"] = "Nuevo daño crítico |c%smás alto|r:"</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -1957,14 +1939,14 @@
       </c>
       <c r="C69" s="3" t="str">
         <f aca="false">"L["""&amp;A69&amp;"""] = true"</f>
-        <v>L["Disabled"] = true</v>
+        <v>L["New |c%slowest|r critical hit:"] = true</v>
       </c>
       <c r="D69" s="1" t="str">
         <f aca="false">"L["""&amp;A69&amp;"""] = """ &amp; B69 &amp; """"</f>
-        <v>L["Disabled"] = "Deshabilitado"</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%slowest|r critical hit:"] = "Nuevo daño crítico |c%smás bajo|r:"</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -1973,11 +1955,11 @@
       </c>
       <c r="C70" s="3" t="str">
         <f aca="false">"L["""&amp;A70&amp;"""] = true"</f>
-        <v>L["Enabled"] = true</v>
+        <v>L["New |c%shighest|r and |c%slowest|r normal hit:"] = true</v>
       </c>
       <c r="D70" s="1" t="str">
         <f aca="false">"L["""&amp;A70&amp;"""] = """ &amp; B70 &amp; """"</f>
-        <v>L["Enabled"] = "Habilitado"</v>
+        <v>L["New |c%shighest|r and |c%slowest|r normal hit:"] = "Nuevo daño normal |c%smás alto|r y |c%smás bajo|r:"</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1989,14 +1971,14 @@
       </c>
       <c r="C71" s="3" t="str">
         <f aca="false">"L["""&amp;A71&amp;"""] = true"</f>
-        <v>L["|c%s%s|r critics tracking"] = true</v>
+        <v>L["New |c%shighest|r normal hit:"] = true</v>
       </c>
       <c r="D71" s="1" t="str">
         <f aca="false">"L["""&amp;A71&amp;"""] = """ &amp; B71 &amp; """"</f>
-        <v>L["|c%s%s|r critics tracking"] = "Seguimiento de críticos |c%s%s|r"</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%shighest|r normal hit:"] = "Nuevo daño normal |c%smás alto|r:"</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="s">
         <v>142</v>
       </c>
@@ -2005,11 +1987,11 @@
       </c>
       <c r="C72" s="3" t="str">
         <f aca="false">"L["""&amp;A72&amp;"""] = true"</f>
-        <v>L["Attack"] = true</v>
+        <v>L["New |c%slowest|r normal hit:"] = true</v>
       </c>
       <c r="D72" s="1" t="str">
         <f aca="false">"L["""&amp;A72&amp;"""] = """ &amp; B72 &amp; """"</f>
-        <v>L["Attack"] = "Atacar"</v>
+        <v>L["New |c%slowest|r normal hit:"] = "Nuevo daño normal |c%smás bajo|r:"</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2021,11 +2003,11 @@
       </c>
       <c r="C73" s="3" t="str">
         <f aca="false">"L["""&amp;A73&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r critical hit:"] = true</v>
+        <v>L["New |c%shighest|r and |c%slowest|r critical heal:"] = true</v>
       </c>
       <c r="D73" s="1" t="str">
         <f aca="false">"L["""&amp;A73&amp;"""] = """ &amp; B73 &amp; """"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r critical hit:"] = "Nuevo daño crítico |c%smás alto|r y |c%smás bajo|r:"</v>
+        <v>L["New |c%shighest|r and |c%slowest|r critical heal:"] = "Nueva sanación crítica |c%smás alta|r y |c%smás baja|r:"</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2037,11 +2019,11 @@
       </c>
       <c r="C74" s="3" t="str">
         <f aca="false">"L["""&amp;A74&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r critical hit:"] = true</v>
+        <v>L["New |c%shighest|r critical heal:"] = true</v>
       </c>
       <c r="D74" s="1" t="str">
         <f aca="false">"L["""&amp;A74&amp;"""] = """ &amp; B74 &amp; """"</f>
-        <v>L["New |c%shighest|r critical hit:"] = "Nuevo daño crítico |c%smás alto|r:"</v>
+        <v>L["New |c%shighest|r critical heal:"] = "Nueva sanación crítica |c%smás alta|r:"</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,11 +2035,11 @@
       </c>
       <c r="C75" s="3" t="str">
         <f aca="false">"L["""&amp;A75&amp;"""] = true"</f>
-        <v>L["New |c%slowest|r critical hit:"] = true</v>
+        <v>L["New |c%slowest|r critical heal:"] = true</v>
       </c>
       <c r="D75" s="1" t="str">
         <f aca="false">"L["""&amp;A75&amp;"""] = """ &amp; B75 &amp; """"</f>
-        <v>L["New |c%slowest|r critical hit:"] = "Nuevo daño crítico |c%smás bajo|r:"</v>
+        <v>L["New |c%slowest|r critical heal:"] = "Nueva sanación crítica |c%smás baja|r:"</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2069,11 +2051,11 @@
       </c>
       <c r="C76" s="3" t="str">
         <f aca="false">"L["""&amp;A76&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r normal hit:"] = true</v>
+        <v>L["New |c%shighest|r and |c%slowest|r normal heal:"] = true</v>
       </c>
       <c r="D76" s="1" t="str">
         <f aca="false">"L["""&amp;A76&amp;"""] = """ &amp; B76 &amp; """"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r normal hit:"] = "Nuevo daño normal |c%smás alto|r y |c%smás bajo|r:"</v>
+        <v>L["New |c%shighest|r and |c%slowest|r normal heal:"] = "Nueva sanación normal |c%smás alta|r y |c%smás baja|r:"</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,11 +2067,11 @@
       </c>
       <c r="C77" s="3" t="str">
         <f aca="false">"L["""&amp;A77&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r normal hit:"] = true</v>
+        <v>L["New |c%shighest|r normal heal:"] = true</v>
       </c>
       <c r="D77" s="1" t="str">
         <f aca="false">"L["""&amp;A77&amp;"""] = """ &amp; B77 &amp; """"</f>
-        <v>L["New |c%shighest|r normal hit:"] = "Nuevo daño normal |c%smás alto|r:"</v>
+        <v>L["New |c%shighest|r normal heal:"] = "Nueva sanación normal |c%smás alta|r:"</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2101,187 +2083,187 @@
       </c>
       <c r="C78" s="3" t="str">
         <f aca="false">"L["""&amp;A78&amp;"""] = true"</f>
-        <v>L["New |c%slowest|r normal hit:"] = true</v>
+        <v>L["New |c%slowest|r normal heal:"] = true</v>
       </c>
       <c r="D78" s="1" t="str">
         <f aca="false">"L["""&amp;A78&amp;"""] = """ &amp; B78 &amp; """"</f>
-        <v>L["New |c%slowest|r normal hit:"] = "Nuevo daño normal |c%smás bajo|r:"</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["New |c%slowest|r normal heal:"] = "Nueva sanación normal |c%smás baja|r:"</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C79" s="3" t="str">
         <f aca="false">"L["""&amp;A79&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r critical heal:"] = true</v>
+        <v>L["ID"] = true</v>
       </c>
       <c r="D79" s="1" t="str">
         <f aca="false">"L["""&amp;A79&amp;"""] = """ &amp; B79 &amp; """"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r critical heal:"] = "Nueva sanación crítica |c%smás alta|r y |c%smás baja|r:"</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["ID"] = "ID"</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C80" s="3" t="str">
         <f aca="false">"L["""&amp;A80&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r critical heal:"] = true</v>
+        <v>L["ID of the spell."] = true</v>
       </c>
       <c r="D80" s="1" t="str">
         <f aca="false">"L["""&amp;A80&amp;"""] = """ &amp; B80 &amp; """"</f>
-        <v>L["New |c%shighest|r critical heal:"] = "Nueva sanación crítica |c%smás alta|r:"</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["ID of the spell."] = "ID hechizo."</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C81" s="3" t="str">
         <f aca="false">"L["""&amp;A81&amp;"""] = true"</f>
-        <v>L["New |c%slowest|r critical heal:"] = true</v>
+        <v>L["Spell name"] = true</v>
       </c>
       <c r="D81" s="1" t="str">
         <f aca="false">"L["""&amp;A81&amp;"""] = """ &amp; B81 &amp; """"</f>
-        <v>L["New |c%slowest|r critical heal:"] = "Nueva sanación crítica |c%smás baja|r:"</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Spell name"] = "Hechizo"</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C82" s="3" t="str">
         <f aca="false">"L["""&amp;A82&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r normal heal:"] = true</v>
+        <v>L["Spell name and rank."] = true</v>
       </c>
       <c r="D82" s="1" t="str">
         <f aca="false">"L["""&amp;A82&amp;"""] = """ &amp; B82 &amp; """"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r normal heal:"] = "Nueva sanación normal |c%smás alta|r y |c%smás baja|r:"</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Spell name and rank."] = "Hechizo y rango."</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C83" s="3" t="str">
         <f aca="false">"L["""&amp;A83&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r normal heal:"] = true</v>
+        <v>L["Normal"] = true</v>
       </c>
       <c r="D83" s="1" t="str">
         <f aca="false">"L["""&amp;A83&amp;"""] = """ &amp; B83 &amp; """"</f>
-        <v>L["New |c%shighest|r normal heal:"] = "Nueva sanación normal |c%smás alta|r:"</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Normal"] = "Normal"</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C84" s="3" t="str">
         <f aca="false">"L["""&amp;A84&amp;"""] = true"</f>
-        <v>L["New |c%slowest|r normal heal:"] = true</v>
+        <v>L["Normal hit or heal."] = true</v>
       </c>
       <c r="D84" s="1" t="str">
         <f aca="false">"L["""&amp;A84&amp;"""] = """ &amp; B84 &amp; """"</f>
-        <v>L["New |c%slowest|r normal heal:"] = "Nueva sanación normal |c%smás baja|r:"</v>
+        <v>L["Normal hit or heal."] = "Daño o sanación normal."</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C85" s="3" t="str">
         <f aca="false">"L["""&amp;A85&amp;"""] = true"</f>
-        <v>L["ID"] = true</v>
+        <v>L["Critic"] = true</v>
       </c>
       <c r="D85" s="1" t="str">
         <f aca="false">"L["""&amp;A85&amp;"""] = """ &amp; B85 &amp; """"</f>
-        <v>L["ID"] = "ID"</v>
+        <v>L["Critic"] = "Crítico"</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="C86" s="3" t="str">
         <f aca="false">"L["""&amp;A86&amp;"""] = true"</f>
-        <v>L["ID of the spell."] = true</v>
+        <v>L["Critic hit or heal."] = true</v>
       </c>
       <c r="D86" s="1" t="str">
         <f aca="false">"L["""&amp;A86&amp;"""] = """ &amp; B86 &amp; """"</f>
-        <v>L["ID of the spell."] = "ID hechizo."</v>
+        <v>L["Critic hit or heal."] = "Daño o sanación crítica."</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C87" s="3" t="str">
         <f aca="false">"L["""&amp;A87&amp;"""] = true"</f>
-        <v>L["Spell name"] = true</v>
+        <v>L["Lock"] = true</v>
       </c>
       <c r="D87" s="1" t="str">
         <f aca="false">"L["""&amp;A87&amp;"""] = """ &amp; B87 &amp; """"</f>
-        <v>L["Spell name"] = "Hechizo"</v>
+        <v>L["Lock"] = "Bloquear"</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="C88" s="3" t="str">
         <f aca="false">"L["""&amp;A88&amp;"""] = true"</f>
-        <v>L["Spell name and rank."] = true</v>
+        <v>L["Lock position"] = true</v>
       </c>
       <c r="D88" s="1" t="str">
         <f aca="false">"L["""&amp;A88&amp;"""] = """ &amp; B88 &amp; """"</f>
-        <v>L["Spell name and rank."] = "Hechizo y rango."</v>
+        <v>L["Lock position"] = "Bloquear posicion"</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C89" s="3" t="str">
         <f aca="false">"L["""&amp;A89&amp;"""] = true"</f>
-        <v>L["Normal"] = true</v>
+        <v>L["Spell list"] = true</v>
       </c>
       <c r="D89" s="1" t="str">
         <f aca="false">"L["""&amp;A89&amp;"""] = """ &amp; B89 &amp; """"</f>
-        <v>L["Normal"] = "Normal"</v>
+        <v>L["Spell list"] = "Lista de hechizos"</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,11 +2275,11 @@
       </c>
       <c r="C90" s="3" t="str">
         <f aca="false">"L["""&amp;A90&amp;"""] = true"</f>
-        <v>L["Normal hit or heal."] = true</v>
+        <v>L["Various classes"] = true</v>
       </c>
       <c r="D90" s="1" t="str">
         <f aca="false">"L["""&amp;A90&amp;"""] = """ &amp; B90 &amp; """"</f>
-        <v>L["Normal hit or heal."] = "Daño o sanación normal."</v>
+        <v>L["Various classes"] = "Varias clases"</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2309,14 +2291,14 @@
       </c>
       <c r="C91" s="3" t="str">
         <f aca="false">"L["""&amp;A91&amp;"""] = true"</f>
-        <v>L["Critic"] = true</v>
+        <v>L["Delete entry"] = true</v>
       </c>
       <c r="D91" s="1" t="str">
         <f aca="false">"L["""&amp;A91&amp;"""] = """ &amp; B91 &amp; """"</f>
-        <v>L["Critic"] = "Crítico"</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>L["Delete entry"] = "Borrar entrada"</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>180</v>
       </c>
@@ -2325,11 +2307,11 @@
       </c>
       <c r="C92" s="3" t="str">
         <f aca="false">"L["""&amp;A92&amp;"""] = true"</f>
-        <v>L["Critic hit or heal."] = true</v>
+        <v>L["Are you sure you want to delete this entry?"] = true</v>
       </c>
       <c r="D92" s="1" t="str">
         <f aca="false">"L["""&amp;A92&amp;"""] = """ &amp; B92 &amp; """"</f>
-        <v>L["Critic hit or heal."] = "Daño o sanación crítica."</v>
+        <v>L["Are you sure you want to delete this entry?"] = "¿Está seguro de que desea eliminar esta entrada?"</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,11 +2323,11 @@
       </c>
       <c r="C93" s="3" t="str">
         <f aca="false">"L["""&amp;A93&amp;"""] = true"</f>
-        <v>L["Lock"] = true</v>
+        <v>L["Filter"] = true</v>
       </c>
       <c r="D93" s="1" t="str">
         <f aca="false">"L["""&amp;A93&amp;"""] = """ &amp; B93 &amp; """"</f>
-        <v>L["Lock"] = "Bloquear"</v>
+        <v>L["Filter"] = "Filtro"</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,11 +2339,11 @@
       </c>
       <c r="C94" s="3" t="str">
         <f aca="false">"L["""&amp;A94&amp;"""] = true"</f>
-        <v>L["Lock position"] = true</v>
+        <v>L["Realm"] = true</v>
       </c>
       <c r="D94" s="1" t="str">
         <f aca="false">"L["""&amp;A94&amp;"""] = """ &amp; B94 &amp; """"</f>
-        <v>L["Lock position"] = "Bloquear posicion"</v>
+        <v>L["Realm"] = "Reino"</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,11 +2355,11 @@
       </c>
       <c r="C95" s="3" t="str">
         <f aca="false">"L["""&amp;A95&amp;"""] = true"</f>
-        <v>L["Spell list"] = true</v>
+        <v>L["Character"] = true</v>
       </c>
       <c r="D95" s="1" t="str">
         <f aca="false">"L["""&amp;A95&amp;"""] = """ &amp; B95 &amp; """"</f>
-        <v>L["Spell list"] = "Lista de hechizos"</v>
+        <v>L["Character"] = "Personaje"</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2389,11 +2371,11 @@
       </c>
       <c r="C96" s="3" t="str">
         <f aca="false">"L["""&amp;A96&amp;"""] = true"</f>
-        <v>L["Various classes"] = true</v>
+        <v>L["Type"] = true</v>
       </c>
       <c r="D96" s="1" t="str">
         <f aca="false">"L["""&amp;A96&amp;"""] = """ &amp; B96 &amp; """"</f>
-        <v>L["Various classes"] = "Varias clases"</v>
+        <v>L["Type"] = "Tipo"</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,11 +2387,11 @@
       </c>
       <c r="C97" s="3" t="str">
         <f aca="false">"L["""&amp;A97&amp;"""] = true"</f>
-        <v>L["Filter"] = true</v>
+        <v>L["Search criteria"] = true</v>
       </c>
       <c r="D97" s="1" t="str">
         <f aca="false">"L["""&amp;A97&amp;"""] = """ &amp; B97 &amp; """"</f>
-        <v>L["Filter"] = "Filtro"</v>
+        <v>L["Search criteria"] = "Criterio de búsqueda"</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,11 +2403,11 @@
       </c>
       <c r="C98" s="3" t="str">
         <f aca="false">"L["""&amp;A98&amp;"""] = true"</f>
-        <v>L["Realm"] = true</v>
+        <v>L["All"] = true</v>
       </c>
       <c r="D98" s="1" t="str">
         <f aca="false">"L["""&amp;A98&amp;"""] = """ &amp; B98 &amp; """"</f>
-        <v>L["Realm"] = "Reino"</v>
+        <v>L["All"] = "Todos"</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2437,11 +2419,11 @@
       </c>
       <c r="C99" s="3" t="str">
         <f aca="false">"L["""&amp;A99&amp;"""] = true"</f>
-        <v>L["Type"] = true</v>
+        <v>L["Back"] = true</v>
       </c>
       <c r="D99" s="1" t="str">
         <f aca="false">"L["""&amp;A99&amp;"""] = """ &amp; B99 &amp; """"</f>
-        <v>L["Type"] = "Tipo"</v>
+        <v>L["Back"] = "Volver"</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,59 +2435,47 @@
       </c>
       <c r="C100" s="3" t="str">
         <f aca="false">"L["""&amp;A100&amp;"""] = true"</f>
-        <v>L["Search criteria"] = true</v>
+        <v>L["Settings"] = true</v>
       </c>
       <c r="D100" s="1" t="str">
         <f aca="false">"L["""&amp;A100&amp;"""] = """ &amp; B100 &amp; """"</f>
-        <v>L["Search criteria"] = "Criterio de búsqueda"</v>
+        <v>L["Settings"] = "Configuración"</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>199</v>
-      </c>
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
       <c r="C101" s="3" t="str">
         <f aca="false">"L["""&amp;A101&amp;"""] = true"</f>
-        <v>L["All"] = true</v>
+        <v>L[""] = true</v>
       </c>
       <c r="D101" s="1" t="str">
         <f aca="false">"L["""&amp;A101&amp;"""] = """ &amp; B101 &amp; """"</f>
-        <v>L["All"] = "Todos"</v>
+        <v>L[""] = ""</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>201</v>
-      </c>
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="3" t="str">
         <f aca="false">"L["""&amp;A102&amp;"""] = true"</f>
-        <v>L["Back"] = true</v>
+        <v>L[""] = true</v>
       </c>
       <c r="D102" s="1" t="str">
         <f aca="false">"L["""&amp;A102&amp;"""] = """ &amp; B102 &amp; """"</f>
-        <v>L["Back"] = "Volver"</v>
+        <v>L[""] = ""</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>203</v>
-      </c>
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
       <c r="C103" s="3" t="str">
         <f aca="false">"L["""&amp;A103&amp;"""] = true"</f>
-        <v>L["Settings"] = true</v>
+        <v>L[""] = true</v>
       </c>
       <c r="D103" s="1" t="str">
         <f aca="false">"L["""&amp;A103&amp;"""] = """ &amp; B103 &amp; """"</f>
-        <v>L["Settings"] = "Configuración"</v>
+        <v>L[""] = ""</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/LogBookCritics/Locale/Locale.xlsx
+++ b/LogBookCritics/Locale/Locale.xlsx
@@ -20,7 +20,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="212">
+  <si>
+    <t xml:space="preserve">Total spells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hechizos totales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saved values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valores guardados</t>
+  </si>
   <si>
     <t xml:space="preserve">Test message</t>
   </si>
@@ -34,12 +46,6 @@
     <t xml:space="preserve">Críticos</t>
   </si>
   <si>
-    <t xml:space="preserve">Critics settings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configuración de criticos</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tracking</t>
   </si>
   <si>
@@ -55,7 +61,7 @@
     <t xml:space="preserve">Toggle tracking hits and heals.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de daños y sanaciones.</t>
+    <t xml:space="preserve">Habilita el seguimiento de daños y sanaciones.</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking heals</t>
@@ -67,7 +73,7 @@
     <t xml:space="preserve">Toggle tracking heals.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de sanaciones.</t>
+    <t xml:space="preserve">Habilita el seguimiento de sanaciones.</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking hits</t>
@@ -79,7 +85,7 @@
     <t xml:space="preserve">Toggle tracking hits.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de daños.</t>
+    <t xml:space="preserve">Habilita el seguimiento de daños.</t>
   </si>
   <si>
     <t xml:space="preserve">Tracking attacks</t>
@@ -91,7 +97,43 @@
     <t xml:space="preserve">Toggle tracking attacks.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de golpes blancos.</t>
+    <t xml:space="preserve">Habilita el seguimiento de golpes blancos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enable tooltips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habilitar mensajes emergentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle showing critical tooltips.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habilita mostrar mensajes emergentes sobre críticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar título</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle showing title.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habilita mostrar el título.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show SpellID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostrar SpellID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toggle showing spell ids.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habilita mostrar el ID de hechizos.</t>
   </si>
   <si>
     <t xml:space="preserve">Messages</t>
@@ -115,7 +157,7 @@
     <t xml:space="preserve">Toggle text frame lock.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el bloqueo del marco de texto.</t>
+    <t xml:space="preserve">Habilita el bloqueo del marco de texto.</t>
   </si>
   <si>
     <t xml:space="preserve">Message duration</t>
@@ -175,7 +217,7 @@
     <t xml:space="preserve">Toggle tracking normal heals.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de sanaciones normales.</t>
+    <t xml:space="preserve">Habilita el seguimiento de sanaciones normales.</t>
   </si>
   <si>
     <t xml:space="preserve">Change color of normal heals text.</t>
@@ -193,7 +235,7 @@
     <t xml:space="preserve">Toggle tracking critical heals.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de las sanaciones críticas.</t>
+    <t xml:space="preserve">Habilita el seguimiento de las sanaciones críticas.</t>
   </si>
   <si>
     <t xml:space="preserve">Change color of critical heals text.</t>
@@ -211,7 +253,7 @@
     <t xml:space="preserve">Toggle traking highest healing values.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alternar el seguimiento de los valores de sanación más altos.</t>
+    <t xml:space="preserve">Habilita el seguimiento de los valores de sanación más altos.</t>
   </si>
   <si>
     <t xml:space="preserve">Change color of highest healing values.</t>
@@ -229,7 +271,7 @@
     <t xml:space="preserve">Toggle traking lowest healing values.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de los valores de sanación mas bajos.</t>
+    <t xml:space="preserve">Habilita el seguimiento de los valores de sanación mas bajos.</t>
   </si>
   <si>
     <t xml:space="preserve">Change color of lowest healing values.</t>
@@ -253,7 +295,7 @@
     <t xml:space="preserve">Toggle tracking normal damage.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de daño normal.</t>
+    <t xml:space="preserve">Habilita el seguimiento de daño normal.</t>
   </si>
   <si>
     <t xml:space="preserve">Change color of normal damage text.</t>
@@ -271,7 +313,7 @@
     <t xml:space="preserve">Toggle tracking critical damage.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de daño crítico.</t>
+    <t xml:space="preserve">Habilita el seguimiento de daño crítico.</t>
   </si>
   <si>
     <t xml:space="preserve">Change color of critical damage text.</t>
@@ -283,7 +325,7 @@
     <t xml:space="preserve">Toggle traking highest damage values.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de los valores de daño más altos.</t>
+    <t xml:space="preserve">Habilita el seguimiento de los valores de daño más altos.</t>
   </si>
   <si>
     <t xml:space="preserve">Change color of highest damage values.</t>
@@ -295,7 +337,7 @@
     <t xml:space="preserve">Toggle traking lowest damage values.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de los valores de daño más bajos.</t>
+    <t xml:space="preserve">Habilita el seguimiento de los valores de daño más bajos.</t>
   </si>
   <si>
     <t xml:space="preserve">Change color of lowest damage values.</t>
@@ -319,7 +361,7 @@
     <t xml:space="preserve">Toggle tracking normal white hits.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de los golpes blancos normales.</t>
+    <t xml:space="preserve">Habilita el seguimiento de los golpes blancos normales.</t>
   </si>
   <si>
     <t xml:space="preserve">Change color of normal white hits text.</t>
@@ -337,7 +379,7 @@
     <t xml:space="preserve">Toggle tracking critical white hits.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de los golpes blancos críticos.</t>
+    <t xml:space="preserve">Habilita el seguimiento de los golpes blancos críticos.</t>
   </si>
   <si>
     <t xml:space="preserve">Change color of critical white hits text.</t>
@@ -349,7 +391,7 @@
     <t xml:space="preserve">Toggle traking highest white hits values.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de los valores de golpes blancos más altos.</t>
+    <t xml:space="preserve">Habilita el seguimiento de los valores de golpes blancos más altos.</t>
   </si>
   <si>
     <t xml:space="preserve">Change color of highest white hits values.</t>
@@ -361,7 +403,7 @@
     <t xml:space="preserve">Toggle traking lowest white hits values.</t>
   </si>
   <si>
-    <t xml:space="preserve">Alterna el seguimiento de los valores de golpes blancos más bajos.</t>
+    <t xml:space="preserve">Habilita el seguimiento de los valores de golpes blancos más bajos.</t>
   </si>
   <si>
     <t xml:space="preserve">Change color of lowest white hits values.</t>
@@ -828,10 +870,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D100" activeCellId="0" sqref="D1:D100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D88" activeCellId="0" sqref="D:D"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -850,12 +892,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="str">
-        <f aca="false">"L["""&amp;A1&amp;"""] = true"</f>
-        <v>L["Test message"] = true</v>
+        <f aca="false">IF(A1="", "", "L["""&amp;A1&amp;"""] = true")</f>
+        <v>L["Total spells"] = true</v>
       </c>
       <c r="D1" s="1" t="str">
-        <f aca="false">"L["""&amp;A1&amp;"""] = """ &amp; B1 &amp; """"</f>
-        <v>L["Test message"] = "Mensaje de prueba"</v>
+        <f aca="false">IF(A1="", "", "L["""&amp;A1&amp;"""] = """ &amp; B1 &amp; """")</f>
+        <v>L["Total spells"] = "Hechizos totales"</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -866,12 +908,12 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="str">
-        <f aca="false">"L["""&amp;A2&amp;"""] = true"</f>
-        <v>L["Critics"] = true</v>
+        <f aca="false">IF(A2="", "", "L["""&amp;A2&amp;"""] = true")</f>
+        <v>L["Saved values"] = true</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f aca="false">"L["""&amp;A2&amp;"""] = """ &amp; B2 &amp; """"</f>
-        <v>L["Critics"] = "Críticos"</v>
+        <f aca="false">IF(A2="", "", "L["""&amp;A2&amp;"""] = """ &amp; B2 &amp; """")</f>
+        <v>L["Saved values"] = "Valores guardados"</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -882,12 +924,12 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f aca="false">"L["""&amp;A3&amp;"""] = true"</f>
-        <v>L["Critics settings"] = true</v>
+        <f aca="false">IF(A3="", "", "L["""&amp;A3&amp;"""] = true")</f>
+        <v>L["Test message"] = true</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f aca="false">"L["""&amp;A3&amp;"""] = """ &amp; B3 &amp; """"</f>
-        <v>L["Critics settings"] = "Configuración de criticos"</v>
+        <f aca="false">IF(A3="", "", "L["""&amp;A3&amp;"""] = """ &amp; B3 &amp; """")</f>
+        <v>L["Test message"] = "Mensaje de prueba"</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,12 +940,12 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="str">
-        <f aca="false">"L["""&amp;A4&amp;"""] = true"</f>
-        <v>L["Tracking"] = true</v>
+        <f aca="false">IF(A4="", "", "L["""&amp;A4&amp;"""] = true")</f>
+        <v>L["Critics"] = true</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f aca="false">"L["""&amp;A4&amp;"""] = """ &amp; B4 &amp; """"</f>
-        <v>L["Tracking"] = "Seguimiento"</v>
+        <f aca="false">IF(A4="", "", "L["""&amp;A4&amp;"""] = """ &amp; B4 &amp; """")</f>
+        <v>L["Critics"] = "Críticos"</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -914,15 +956,15 @@
         <v>9</v>
       </c>
       <c r="C5" s="3" t="str">
-        <f aca="false">"L["""&amp;A5&amp;"""] = true"</f>
-        <v>L["Enable tracking"] = true</v>
+        <f aca="false">IF(A5="", "", "L["""&amp;A5&amp;"""] = true")</f>
+        <v>L["Tracking"] = true</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f aca="false">"L["""&amp;A5&amp;"""] = """ &amp; B5 &amp; """"</f>
-        <v>L["Enable tracking"] = "Habilitar seguimiento"</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A5="", "", "L["""&amp;A5&amp;"""] = """ &amp; B5 &amp; """")</f>
+        <v>L["Tracking"] = "Seguimiento"</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -930,15 +972,15 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="str">
-        <f aca="false">"L["""&amp;A6&amp;"""] = true"</f>
-        <v>L["Toggle tracking hits and heals."] = true</v>
+        <f aca="false">IF(A6="", "", "L["""&amp;A6&amp;"""] = true")</f>
+        <v>L["Enable tracking"] = true</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f aca="false">"L["""&amp;A6&amp;"""] = """ &amp; B6 &amp; """"</f>
-        <v>L["Toggle tracking hits and heals."] = "Alterna el seguimiento de daños y sanaciones."</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A6="", "", "L["""&amp;A6&amp;"""] = """ &amp; B6 &amp; """")</f>
+        <v>L["Enable tracking"] = "Habilitar seguimiento"</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -946,12 +988,12 @@
         <v>13</v>
       </c>
       <c r="C7" s="3" t="str">
-        <f aca="false">"L["""&amp;A7&amp;"""] = true"</f>
-        <v>L["Tracking heals"] = true</v>
+        <f aca="false">IF(A7="", "", "L["""&amp;A7&amp;"""] = true")</f>
+        <v>L["Toggle tracking hits and heals."] = true</v>
       </c>
       <c r="D7" s="1" t="str">
-        <f aca="false">"L["""&amp;A7&amp;"""] = """ &amp; B7 &amp; """"</f>
-        <v>L["Tracking heals"] = "Seguimiento de sanaciones"</v>
+        <f aca="false">IF(A7="", "", "L["""&amp;A7&amp;"""] = """ &amp; B7 &amp; """")</f>
+        <v>L["Toggle tracking hits and heals."] = "Habilita el seguimiento de daños y sanaciones."</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -962,12 +1004,12 @@
         <v>15</v>
       </c>
       <c r="C8" s="3" t="str">
-        <f aca="false">"L["""&amp;A8&amp;"""] = true"</f>
-        <v>L["Toggle tracking heals."] = true</v>
+        <f aca="false">IF(A8="", "", "L["""&amp;A8&amp;"""] = true")</f>
+        <v>L["Tracking heals"] = true</v>
       </c>
       <c r="D8" s="1" t="str">
-        <f aca="false">"L["""&amp;A8&amp;"""] = """ &amp; B8 &amp; """"</f>
-        <v>L["Toggle tracking heals."] = "Alterna el seguimiento de sanaciones."</v>
+        <f aca="false">IF(A8="", "", "L["""&amp;A8&amp;"""] = """ &amp; B8 &amp; """")</f>
+        <v>L["Tracking heals"] = "Seguimiento de sanaciones"</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -978,12 +1020,12 @@
         <v>17</v>
       </c>
       <c r="C9" s="3" t="str">
-        <f aca="false">"L["""&amp;A9&amp;"""] = true"</f>
-        <v>L["Tracking hits"] = true</v>
+        <f aca="false">IF(A9="", "", "L["""&amp;A9&amp;"""] = true")</f>
+        <v>L["Toggle tracking heals."] = true</v>
       </c>
       <c r="D9" s="1" t="str">
-        <f aca="false">"L["""&amp;A9&amp;"""] = """ &amp; B9 &amp; """"</f>
-        <v>L["Tracking hits"] = "Seguimiento de daños"</v>
+        <f aca="false">IF(A9="", "", "L["""&amp;A9&amp;"""] = """ &amp; B9 &amp; """")</f>
+        <v>L["Toggle tracking heals."] = "Habilita el seguimiento de sanaciones."</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -994,12 +1036,12 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="str">
-        <f aca="false">"L["""&amp;A10&amp;"""] = true"</f>
-        <v>L["Toggle tracking hits."] = true</v>
+        <f aca="false">IF(A10="", "", "L["""&amp;A10&amp;"""] = true")</f>
+        <v>L["Tracking hits"] = true</v>
       </c>
       <c r="D10" s="1" t="str">
-        <f aca="false">"L["""&amp;A10&amp;"""] = """ &amp; B10 &amp; """"</f>
-        <v>L["Toggle tracking hits."] = "Alterna el seguimiento de daños."</v>
+        <f aca="false">IF(A10="", "", "L["""&amp;A10&amp;"""] = """ &amp; B10 &amp; """")</f>
+        <v>L["Tracking hits"] = "Seguimiento de daños"</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1010,12 +1052,12 @@
         <v>21</v>
       </c>
       <c r="C11" s="3" t="str">
-        <f aca="false">"L["""&amp;A11&amp;"""] = true"</f>
-        <v>L["Tracking attacks"] = true</v>
+        <f aca="false">IF(A11="", "", "L["""&amp;A11&amp;"""] = true")</f>
+        <v>L["Toggle tracking hits."] = true</v>
       </c>
       <c r="D11" s="1" t="str">
-        <f aca="false">"L["""&amp;A11&amp;"""] = """ &amp; B11 &amp; """"</f>
-        <v>L["Tracking attacks"] = "Seguimientos de golpes blancos"</v>
+        <f aca="false">IF(A11="", "", "L["""&amp;A11&amp;"""] = """ &amp; B11 &amp; """")</f>
+        <v>L["Toggle tracking hits."] = "Habilita el seguimiento de daños."</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1026,12 +1068,12 @@
         <v>23</v>
       </c>
       <c r="C12" s="3" t="str">
-        <f aca="false">"L["""&amp;A12&amp;"""] = true"</f>
-        <v>L["Toggle tracking attacks."] = true</v>
+        <f aca="false">IF(A12="", "", "L["""&amp;A12&amp;"""] = true")</f>
+        <v>L["Tracking attacks"] = true</v>
       </c>
       <c r="D12" s="1" t="str">
-        <f aca="false">"L["""&amp;A12&amp;"""] = """ &amp; B12 &amp; """"</f>
-        <v>L["Toggle tracking attacks."] = "Alterna el seguimiento de golpes blancos."</v>
+        <f aca="false">IF(A12="", "", "L["""&amp;A12&amp;"""] = """ &amp; B12 &amp; """")</f>
+        <v>L["Tracking attacks"] = "Seguimientos de golpes blancos"</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1042,12 +1084,12 @@
         <v>25</v>
       </c>
       <c r="C13" s="3" t="str">
-        <f aca="false">"L["""&amp;A13&amp;"""] = true"</f>
-        <v>L["Messages"] = true</v>
+        <f aca="false">IF(A13="", "", "L["""&amp;A13&amp;"""] = true")</f>
+        <v>L["Toggle tracking attacks."] = true</v>
       </c>
       <c r="D13" s="1" t="str">
-        <f aca="false">"L["""&amp;A13&amp;"""] = """ &amp; B13 &amp; """"</f>
-        <v>L["Messages"] = "Mensajes"</v>
+        <f aca="false">IF(A13="", "", "L["""&amp;A13&amp;"""] = """ &amp; B13 &amp; """")</f>
+        <v>L["Toggle tracking attacks."] = "Habilita el seguimiento de golpes blancos."</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1058,15 +1100,15 @@
         <v>27</v>
       </c>
       <c r="C14" s="3" t="str">
-        <f aca="false">"L["""&amp;A14&amp;"""] = true"</f>
-        <v>L["Screen"] = true</v>
+        <f aca="false">IF(A14="", "", "L["""&amp;A14&amp;"""] = true")</f>
+        <v>L["Enable tooltips"] = true</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f aca="false">"L["""&amp;A14&amp;"""] = """ &amp; B14 &amp; """"</f>
-        <v>L["Screen"] = "Pantalla"</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A14="", "", "L["""&amp;A14&amp;"""] = """ &amp; B14 &amp; """")</f>
+        <v>L["Enable tooltips"] = "Habilitar mensajes emergentes"</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1074,12 +1116,12 @@
         <v>29</v>
       </c>
       <c r="C15" s="3" t="str">
-        <f aca="false">"L["""&amp;A15&amp;"""] = true"</f>
-        <v>L["Unlock text frame"] = true</v>
+        <f aca="false">IF(A15="", "", "L["""&amp;A15&amp;"""] = true")</f>
+        <v>L["Toggle showing critical tooltips."] = true</v>
       </c>
       <c r="D15" s="1" t="str">
-        <f aca="false">"L["""&amp;A15&amp;"""] = """ &amp; B15 &amp; """"</f>
-        <v>L["Unlock text frame"] = "Desbloquear marco de texto"</v>
+        <f aca="false">IF(A15="", "", "L["""&amp;A15&amp;"""] = """ &amp; B15 &amp; """")</f>
+        <v>L["Toggle showing critical tooltips."] = "Habilita mostrar mensajes emergentes sobre críticos."</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1090,12 +1132,12 @@
         <v>31</v>
       </c>
       <c r="C16" s="3" t="str">
-        <f aca="false">"L["""&amp;A16&amp;"""] = true"</f>
-        <v>L["Toggle text frame lock."] = true</v>
+        <f aca="false">IF(A16="", "", "L["""&amp;A16&amp;"""] = true")</f>
+        <v>L["Show title"] = true</v>
       </c>
       <c r="D16" s="1" t="str">
-        <f aca="false">"L["""&amp;A16&amp;"""] = """ &amp; B16 &amp; """"</f>
-        <v>L["Toggle text frame lock."] = "Alterna el bloqueo del marco de texto."</v>
+        <f aca="false">IF(A16="", "", "L["""&amp;A16&amp;"""] = """ &amp; B16 &amp; """")</f>
+        <v>L["Show title"] = "Mostrar título"</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1106,15 +1148,15 @@
         <v>33</v>
       </c>
       <c r="C17" s="3" t="str">
-        <f aca="false">"L["""&amp;A17&amp;"""] = true"</f>
-        <v>L["Message duration"] = true</v>
+        <f aca="false">IF(A17="", "", "L["""&amp;A17&amp;"""] = true")</f>
+        <v>L["Toggle showing title."] = true</v>
       </c>
       <c r="D17" s="1" t="str">
-        <f aca="false">"L["""&amp;A17&amp;"""] = """ &amp; B17 &amp; """"</f>
-        <v>L["Message duration"] = "Duración del mensaje"</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A17="", "", "L["""&amp;A17&amp;"""] = """ &amp; B17 &amp; """")</f>
+        <v>L["Toggle showing title."] = "Habilita mostrar el título."</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1122,15 +1164,15 @@
         <v>35</v>
       </c>
       <c r="C18" s="3" t="str">
-        <f aca="false">"L["""&amp;A18&amp;"""] = true"</f>
-        <v>L["Duration of messages on screen."] = true</v>
+        <f aca="false">IF(A18="", "", "L["""&amp;A18&amp;"""] = true")</f>
+        <v>L["Show SpellID"] = true</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f aca="false">"L["""&amp;A18&amp;"""] = """ &amp; B18 &amp; """"</f>
-        <v>L["Duration of messages on screen."] = "Duración de los mensajes en pantalla."</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A18="", "", "L["""&amp;A18&amp;"""] = """ &amp; B18 &amp; """")</f>
+        <v>L["Show SpellID"] = "Mostrar SpellID"</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1138,12 +1180,12 @@
         <v>37</v>
       </c>
       <c r="C19" s="3" t="str">
-        <f aca="false">"L["""&amp;A19&amp;"""] = true"</f>
-        <v>L["Screen position"] = true</v>
+        <f aca="false">IF(A19="", "", "L["""&amp;A19&amp;"""] = true")</f>
+        <v>L["Toggle showing spell ids."] = true</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f aca="false">"L["""&amp;A19&amp;"""] = """ &amp; B19 &amp; """"</f>
-        <v>L["Screen position"] = "Posición en pantalla"</v>
+        <f aca="false">IF(A19="", "", "L["""&amp;A19&amp;"""] = """ &amp; B19 &amp; """")</f>
+        <v>L["Toggle showing spell ids."] = "Habilita mostrar el ID de hechizos."</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1154,12 +1196,12 @@
         <v>39</v>
       </c>
       <c r="C20" s="3" t="str">
-        <f aca="false">"L["""&amp;A20&amp;"""] = true"</f>
-        <v>L["Position X"] = true</v>
+        <f aca="false">IF(A20="", "", "L["""&amp;A20&amp;"""] = true")</f>
+        <v>L["Messages"] = true</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f aca="false">"L["""&amp;A20&amp;"""] = """ &amp; B20 &amp; """"</f>
-        <v>L["Position X"] = "Posición X"</v>
+        <f aca="false">IF(A20="", "", "L["""&amp;A20&amp;"""] = """ &amp; B20 &amp; """")</f>
+        <v>L["Messages"] = "Mensajes"</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1170,12 +1212,12 @@
         <v>41</v>
       </c>
       <c r="C21" s="3" t="str">
-        <f aca="false">"L["""&amp;A21&amp;"""] = true"</f>
-        <v>L["Screen position X."] = true</v>
+        <f aca="false">IF(A21="", "", "L["""&amp;A21&amp;"""] = true")</f>
+        <v>L["Screen"] = true</v>
       </c>
       <c r="D21" s="1" t="str">
-        <f aca="false">"L["""&amp;A21&amp;"""] = """ &amp; B21 &amp; """"</f>
-        <v>L["Screen position X."] = "Posición X en pantalla."</v>
+        <f aca="false">IF(A21="", "", "L["""&amp;A21&amp;"""] = """ &amp; B21 &amp; """")</f>
+        <v>L["Screen"] = "Pantalla"</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1186,12 +1228,12 @@
         <v>43</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f aca="false">"L["""&amp;A22&amp;"""] = true"</f>
-        <v>L["Position Y"] = true</v>
+        <f aca="false">IF(A22="", "", "L["""&amp;A22&amp;"""] = true")</f>
+        <v>L["Unlock text frame"] = true</v>
       </c>
       <c r="D22" s="1" t="str">
-        <f aca="false">"L["""&amp;A22&amp;"""] = """ &amp; B22 &amp; """"</f>
-        <v>L["Position Y"] = "Posición Y"</v>
+        <f aca="false">IF(A22="", "", "L["""&amp;A22&amp;"""] = """ &amp; B22 &amp; """")</f>
+        <v>L["Unlock text frame"] = "Desbloquear marco de texto"</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1202,12 +1244,12 @@
         <v>45</v>
       </c>
       <c r="C23" s="3" t="str">
-        <f aca="false">"L["""&amp;A23&amp;"""] = true"</f>
-        <v>L["Screen position Y."] = true</v>
+        <f aca="false">IF(A23="", "", "L["""&amp;A23&amp;"""] = true")</f>
+        <v>L["Toggle text frame lock."] = true</v>
       </c>
       <c r="D23" s="1" t="str">
-        <f aca="false">"L["""&amp;A23&amp;"""] = """ &amp; B23 &amp; """"</f>
-        <v>L["Screen position Y."] = "Posición Y en pantalla."</v>
+        <f aca="false">IF(A23="", "", "L["""&amp;A23&amp;"""] = """ &amp; B23 &amp; """")</f>
+        <v>L["Toggle text frame lock."] = "Habilita el bloqueo del marco de texto."</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,15 +1260,15 @@
         <v>47</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f aca="false">"L["""&amp;A24&amp;"""] = true"</f>
-        <v>L["Healings"] = true</v>
+        <f aca="false">IF(A24="", "", "L["""&amp;A24&amp;"""] = true")</f>
+        <v>L["Message duration"] = true</v>
       </c>
       <c r="D24" s="1" t="str">
-        <f aca="false">"L["""&amp;A24&amp;"""] = """ &amp; B24 &amp; """"</f>
-        <v>L["Healings"] = "Sanaciones"</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A24="", "", "L["""&amp;A24&amp;"""] = """ &amp; B24 &amp; """")</f>
+        <v>L["Message duration"] = "Duración del mensaje"</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1234,15 +1276,15 @@
         <v>49</v>
       </c>
       <c r="C25" s="3" t="str">
-        <f aca="false">"L["""&amp;A25&amp;"""] = true"</f>
-        <v>L["Normal heals"] = true</v>
+        <f aca="false">IF(A25="", "", "L["""&amp;A25&amp;"""] = true")</f>
+        <v>L["Duration of messages on screen."] = true</v>
       </c>
       <c r="D25" s="1" t="str">
-        <f aca="false">"L["""&amp;A25&amp;"""] = """ &amp; B25 &amp; """"</f>
-        <v>L["Normal heals"] = "Sanaciones normales"</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A25="", "", "L["""&amp;A25&amp;"""] = """ &amp; B25 &amp; """")</f>
+        <v>L["Duration of messages on screen."] = "Duración de los mensajes en pantalla."</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1250,15 +1292,15 @@
         <v>51</v>
       </c>
       <c r="C26" s="3" t="str">
-        <f aca="false">"L["""&amp;A26&amp;"""] = true"</f>
-        <v>L["Toggle tracking normal heals."] = true</v>
+        <f aca="false">IF(A26="", "", "L["""&amp;A26&amp;"""] = true")</f>
+        <v>L["Screen position"] = true</v>
       </c>
       <c r="D26" s="1" t="str">
-        <f aca="false">"L["""&amp;A26&amp;"""] = """ &amp; B26 &amp; """"</f>
-        <v>L["Toggle tracking normal heals."] = "Alterna el seguimiento de sanaciones normales."</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A26="", "", "L["""&amp;A26&amp;"""] = """ &amp; B26 &amp; """")</f>
+        <v>L["Screen position"] = "Posición en pantalla"</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1266,12 +1308,12 @@
         <v>53</v>
       </c>
       <c r="C27" s="3" t="str">
-        <f aca="false">"L["""&amp;A27&amp;"""] = true"</f>
-        <v>L["Change color of normal heals text."] = true</v>
+        <f aca="false">IF(A27="", "", "L["""&amp;A27&amp;"""] = true")</f>
+        <v>L["Position X"] = true</v>
       </c>
       <c r="D27" s="1" t="str">
-        <f aca="false">"L["""&amp;A27&amp;"""] = """ &amp; B27 &amp; """"</f>
-        <v>L["Change color of normal heals text."] = "Cambia el color de texto de las sanaciones normales."</v>
+        <f aca="false">IF(A27="", "", "L["""&amp;A27&amp;"""] = """ &amp; B27 &amp; """")</f>
+        <v>L["Position X"] = "Posición X"</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1282,15 +1324,15 @@
         <v>55</v>
       </c>
       <c r="C28" s="3" t="str">
-        <f aca="false">"L["""&amp;A28&amp;"""] = true"</f>
-        <v>L["Critical heals"] = true</v>
+        <f aca="false">IF(A28="", "", "L["""&amp;A28&amp;"""] = true")</f>
+        <v>L["Screen position X."] = true</v>
       </c>
       <c r="D28" s="1" t="str">
-        <f aca="false">"L["""&amp;A28&amp;"""] = """ &amp; B28 &amp; """"</f>
-        <v>L["Critical heals"] = "Sanaciones críticas"</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A28="", "", "L["""&amp;A28&amp;"""] = """ &amp; B28 &amp; """")</f>
+        <v>L["Screen position X."] = "Posición X en pantalla."</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1298,15 +1340,15 @@
         <v>57</v>
       </c>
       <c r="C29" s="3" t="str">
-        <f aca="false">"L["""&amp;A29&amp;"""] = true"</f>
-        <v>L["Toggle tracking critical heals."] = true</v>
+        <f aca="false">IF(A29="", "", "L["""&amp;A29&amp;"""] = true")</f>
+        <v>L["Position Y"] = true</v>
       </c>
       <c r="D29" s="1" t="str">
-        <f aca="false">"L["""&amp;A29&amp;"""] = """ &amp; B29 &amp; """"</f>
-        <v>L["Toggle tracking critical heals."] = "Alterna el seguimiento de las sanaciones críticas."</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A29="", "", "L["""&amp;A29&amp;"""] = """ &amp; B29 &amp; """")</f>
+        <v>L["Position Y"] = "Posición Y"</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1314,12 +1356,12 @@
         <v>59</v>
       </c>
       <c r="C30" s="3" t="str">
-        <f aca="false">"L["""&amp;A30&amp;"""] = true"</f>
-        <v>L["Change color of critical heals text."] = true</v>
+        <f aca="false">IF(A30="", "", "L["""&amp;A30&amp;"""] = true")</f>
+        <v>L["Screen position Y."] = true</v>
       </c>
       <c r="D30" s="1" t="str">
-        <f aca="false">"L["""&amp;A30&amp;"""] = """ &amp; B30 &amp; """"</f>
-        <v>L["Change color of critical heals text."] = "Cambia el color de texto de las sanaciones críticas."</v>
+        <f aca="false">IF(A30="", "", "L["""&amp;A30&amp;"""] = """ &amp; B30 &amp; """")</f>
+        <v>L["Screen position Y."] = "Posición Y en pantalla."</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1330,15 +1372,15 @@
         <v>61</v>
       </c>
       <c r="C31" s="3" t="str">
-        <f aca="false">"L["""&amp;A31&amp;"""] = true"</f>
-        <v>L["Highest values"] = true</v>
+        <f aca="false">IF(A31="", "", "L["""&amp;A31&amp;"""] = true")</f>
+        <v>L["Healings"] = true</v>
       </c>
       <c r="D31" s="1" t="str">
-        <f aca="false">"L["""&amp;A31&amp;"""] = """ &amp; B31 &amp; """"</f>
-        <v>L["Highest values"] = "Valores más altos"</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A31="", "", "L["""&amp;A31&amp;"""] = """ &amp; B31 &amp; """")</f>
+        <v>L["Healings"] = "Sanaciones"</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1346,12 +1388,12 @@
         <v>63</v>
       </c>
       <c r="C32" s="3" t="str">
-        <f aca="false">"L["""&amp;A32&amp;"""] = true"</f>
-        <v>L["Toggle traking highest healing values."] = true</v>
+        <f aca="false">IF(A32="", "", "L["""&amp;A32&amp;"""] = true")</f>
+        <v>L["Normal heals"] = true</v>
       </c>
       <c r="D32" s="1" t="str">
-        <f aca="false">"L["""&amp;A32&amp;"""] = """ &amp; B32 &amp; """"</f>
-        <v>L["Toggle traking highest healing values."] = "Alternar el seguimiento de los valores de sanación más altos."</v>
+        <f aca="false">IF(A32="", "", "L["""&amp;A32&amp;"""] = """ &amp; B32 &amp; """")</f>
+        <v>L["Normal heals"] = "Sanaciones normales"</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1362,15 +1404,15 @@
         <v>65</v>
       </c>
       <c r="C33" s="3" t="str">
-        <f aca="false">"L["""&amp;A33&amp;"""] = true"</f>
-        <v>L["Change color of highest healing values."] = true</v>
+        <f aca="false">IF(A33="", "", "L["""&amp;A33&amp;"""] = true")</f>
+        <v>L["Toggle tracking normal heals."] = true</v>
       </c>
       <c r="D33" s="1" t="str">
-        <f aca="false">"L["""&amp;A33&amp;"""] = """ &amp; B33 &amp; """"</f>
-        <v>L["Change color of highest healing values."] = "Cambia el color de los valores más altos de sanación."</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A33="", "", "L["""&amp;A33&amp;"""] = """ &amp; B33 &amp; """")</f>
+        <v>L["Toggle tracking normal heals."] = "Habilita el seguimiento de sanaciones normales."</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
         <v>66</v>
       </c>
@@ -1378,15 +1420,15 @@
         <v>67</v>
       </c>
       <c r="C34" s="3" t="str">
-        <f aca="false">"L["""&amp;A34&amp;"""] = true"</f>
-        <v>L["Lowest values"] = true</v>
+        <f aca="false">IF(A34="", "", "L["""&amp;A34&amp;"""] = true")</f>
+        <v>L["Change color of normal heals text."] = true</v>
       </c>
       <c r="D34" s="1" t="str">
-        <f aca="false">"L["""&amp;A34&amp;"""] = """ &amp; B34 &amp; """"</f>
-        <v>L["Lowest values"] = "Valores más bajos"</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A34="", "", "L["""&amp;A34&amp;"""] = """ &amp; B34 &amp; """")</f>
+        <v>L["Change color of normal heals text."] = "Cambia el color de texto de las sanaciones normales."</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>68</v>
       </c>
@@ -1394,12 +1436,12 @@
         <v>69</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f aca="false">"L["""&amp;A35&amp;"""] = true"</f>
-        <v>L["Toggle traking lowest healing values."] = true</v>
+        <f aca="false">IF(A35="", "", "L["""&amp;A35&amp;"""] = true")</f>
+        <v>L["Critical heals"] = true</v>
       </c>
       <c r="D35" s="1" t="str">
-        <f aca="false">"L["""&amp;A35&amp;"""] = """ &amp; B35 &amp; """"</f>
-        <v>L["Toggle traking lowest healing values."] = "Alterna el seguimiento de los valores de sanación mas bajos."</v>
+        <f aca="false">IF(A35="", "", "L["""&amp;A35&amp;"""] = """ &amp; B35 &amp; """")</f>
+        <v>L["Critical heals"] = "Sanaciones críticas"</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,15 +1452,15 @@
         <v>71</v>
       </c>
       <c r="C36" s="3" t="str">
-        <f aca="false">"L["""&amp;A36&amp;"""] = true"</f>
-        <v>L["Change color of lowest healing values."] = true</v>
+        <f aca="false">IF(A36="", "", "L["""&amp;A36&amp;"""] = true")</f>
+        <v>L["Toggle tracking critical heals."] = true</v>
       </c>
       <c r="D36" s="1" t="str">
-        <f aca="false">"L["""&amp;A36&amp;"""] = """ &amp; B36 &amp; """"</f>
-        <v>L["Change color of lowest healing values."] = "Cambia el color de los valores más bajos de sanación."</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A36="", "", "L["""&amp;A36&amp;"""] = """ &amp; B36 &amp; """")</f>
+        <v>L["Toggle tracking critical heals."] = "Habilita el seguimiento de las sanaciones críticas."</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
         <v>72</v>
       </c>
@@ -1426,12 +1468,12 @@
         <v>73</v>
       </c>
       <c r="C37" s="3" t="str">
-        <f aca="false">"L["""&amp;A37&amp;"""] = true"</f>
-        <v>L["Harmful"] = true</v>
+        <f aca="false">IF(A37="", "", "L["""&amp;A37&amp;"""] = true")</f>
+        <v>L["Change color of critical heals text."] = true</v>
       </c>
       <c r="D37" s="1" t="str">
-        <f aca="false">"L["""&amp;A37&amp;"""] = """ &amp; B37 &amp; """"</f>
-        <v>L["Harmful"] = "Dañinos"</v>
+        <f aca="false">IF(A37="", "", "L["""&amp;A37&amp;"""] = """ &amp; B37 &amp; """")</f>
+        <v>L["Change color of critical heals text."] = "Cambia el color de texto de las sanaciones críticas."</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,12 +1484,12 @@
         <v>75</v>
       </c>
       <c r="C38" s="3" t="str">
-        <f aca="false">"L["""&amp;A38&amp;"""] = true"</f>
-        <v>L["Normal damage"] = true</v>
+        <f aca="false">IF(A38="", "", "L["""&amp;A38&amp;"""] = true")</f>
+        <v>L["Highest values"] = true</v>
       </c>
       <c r="D38" s="1" t="str">
-        <f aca="false">"L["""&amp;A38&amp;"""] = """ &amp; B38 &amp; """"</f>
-        <v>L["Normal damage"] = "Daño normal"</v>
+        <f aca="false">IF(A38="", "", "L["""&amp;A38&amp;"""] = """ &amp; B38 &amp; """")</f>
+        <v>L["Highest values"] = "Valores más altos"</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1458,12 +1500,12 @@
         <v>77</v>
       </c>
       <c r="C39" s="3" t="str">
-        <f aca="false">"L["""&amp;A39&amp;"""] = true"</f>
-        <v>L["Toggle tracking normal damage."] = true</v>
+        <f aca="false">IF(A39="", "", "L["""&amp;A39&amp;"""] = true")</f>
+        <v>L["Toggle traking highest healing values."] = true</v>
       </c>
       <c r="D39" s="1" t="str">
-        <f aca="false">"L["""&amp;A39&amp;"""] = """ &amp; B39 &amp; """"</f>
-        <v>L["Toggle tracking normal damage."] = "Alterna el seguimiento de daño normal."</v>
+        <f aca="false">IF(A39="", "", "L["""&amp;A39&amp;"""] = """ &amp; B39 &amp; """")</f>
+        <v>L["Toggle traking highest healing values."] = "Habilita el seguimiento de los valores de sanación más altos."</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,12 +1516,12 @@
         <v>79</v>
       </c>
       <c r="C40" s="3" t="str">
-        <f aca="false">"L["""&amp;A40&amp;"""] = true"</f>
-        <v>L["Change color of normal damage text."] = true</v>
+        <f aca="false">IF(A40="", "", "L["""&amp;A40&amp;"""] = true")</f>
+        <v>L["Change color of highest healing values."] = true</v>
       </c>
       <c r="D40" s="1" t="str">
-        <f aca="false">"L["""&amp;A40&amp;"""] = """ &amp; B40 &amp; """"</f>
-        <v>L["Change color of normal damage text."] = "Cambia el color de texto del daño normal."</v>
+        <f aca="false">IF(A40="", "", "L["""&amp;A40&amp;"""] = """ &amp; B40 &amp; """")</f>
+        <v>L["Change color of highest healing values."] = "Cambia el color de los valores más altos de sanación."</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1490,12 +1532,12 @@
         <v>81</v>
       </c>
       <c r="C41" s="3" t="str">
-        <f aca="false">"L["""&amp;A41&amp;"""] = true"</f>
-        <v>L["Critical damage"] = true</v>
+        <f aca="false">IF(A41="", "", "L["""&amp;A41&amp;"""] = true")</f>
+        <v>L["Lowest values"] = true</v>
       </c>
       <c r="D41" s="1" t="str">
-        <f aca="false">"L["""&amp;A41&amp;"""] = """ &amp; B41 &amp; """"</f>
-        <v>L["Critical damage"] = "Daño crítico"</v>
+        <f aca="false">IF(A41="", "", "L["""&amp;A41&amp;"""] = """ &amp; B41 &amp; """")</f>
+        <v>L["Lowest values"] = "Valores más bajos"</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1506,12 +1548,12 @@
         <v>83</v>
       </c>
       <c r="C42" s="3" t="str">
-        <f aca="false">"L["""&amp;A42&amp;"""] = true"</f>
-        <v>L["Toggle tracking critical damage."] = true</v>
+        <f aca="false">IF(A42="", "", "L["""&amp;A42&amp;"""] = true")</f>
+        <v>L["Toggle traking lowest healing values."] = true</v>
       </c>
       <c r="D42" s="1" t="str">
-        <f aca="false">"L["""&amp;A42&amp;"""] = """ &amp; B42 &amp; """"</f>
-        <v>L["Toggle tracking critical damage."] = "Alterna el seguimiento de daño crítico."</v>
+        <f aca="false">IF(A42="", "", "L["""&amp;A42&amp;"""] = """ &amp; B42 &amp; """")</f>
+        <v>L["Toggle traking lowest healing values."] = "Habilita el seguimiento de los valores de sanación mas bajos."</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1522,15 +1564,15 @@
         <v>85</v>
       </c>
       <c r="C43" s="3" t="str">
-        <f aca="false">"L["""&amp;A43&amp;"""] = true"</f>
-        <v>L["Change color of critical damage text."] = true</v>
+        <f aca="false">IF(A43="", "", "L["""&amp;A43&amp;"""] = true")</f>
+        <v>L["Change color of lowest healing values."] = true</v>
       </c>
       <c r="D43" s="1" t="str">
-        <f aca="false">"L["""&amp;A43&amp;"""] = """ &amp; B43 &amp; """"</f>
-        <v>L["Change color of critical damage text."] = "Cambiar el color del texto de daño crítico."</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A43="", "", "L["""&amp;A43&amp;"""] = """ &amp; B43 &amp; """")</f>
+        <v>L["Change color of lowest healing values."] = "Cambia el color de los valores más bajos de sanación."</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
         <v>86</v>
       </c>
@@ -1538,15 +1580,15 @@
         <v>87</v>
       </c>
       <c r="C44" s="3" t="str">
-        <f aca="false">"L["""&amp;A44&amp;"""] = true"</f>
-        <v>L["Toggle traking highest damage values."] = true</v>
+        <f aca="false">IF(A44="", "", "L["""&amp;A44&amp;"""] = true")</f>
+        <v>L["Harmful"] = true</v>
       </c>
       <c r="D44" s="1" t="str">
-        <f aca="false">"L["""&amp;A44&amp;"""] = """ &amp; B44 &amp; """"</f>
-        <v>L["Toggle traking highest damage values."] = "Alterna el seguimiento de los valores de daño más altos."</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A44="", "", "L["""&amp;A44&amp;"""] = """ &amp; B44 &amp; """")</f>
+        <v>L["Harmful"] = "Dañinos"</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="s">
         <v>88</v>
       </c>
@@ -1554,12 +1596,12 @@
         <v>89</v>
       </c>
       <c r="C45" s="3" t="str">
-        <f aca="false">"L["""&amp;A45&amp;"""] = true"</f>
-        <v>L["Change color of highest damage values."] = true</v>
+        <f aca="false">IF(A45="", "", "L["""&amp;A45&amp;"""] = true")</f>
+        <v>L["Normal damage"] = true</v>
       </c>
       <c r="D45" s="1" t="str">
-        <f aca="false">"L["""&amp;A45&amp;"""] = """ &amp; B45 &amp; """"</f>
-        <v>L["Change color of highest damage values."] = "Cambia el color de los valores de daño más altos."</v>
+        <f aca="false">IF(A45="", "", "L["""&amp;A45&amp;"""] = """ &amp; B45 &amp; """")</f>
+        <v>L["Normal damage"] = "Daño normal"</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1570,12 +1612,12 @@
         <v>91</v>
       </c>
       <c r="C46" s="3" t="str">
-        <f aca="false">"L["""&amp;A46&amp;"""] = true"</f>
-        <v>L["Toggle traking lowest damage values."] = true</v>
+        <f aca="false">IF(A46="", "", "L["""&amp;A46&amp;"""] = true")</f>
+        <v>L["Toggle tracking normal damage."] = true</v>
       </c>
       <c r="D46" s="1" t="str">
-        <f aca="false">"L["""&amp;A46&amp;"""] = """ &amp; B46 &amp; """"</f>
-        <v>L["Toggle traking lowest damage values."] = "Alterna el seguimiento de los valores de daño más bajos."</v>
+        <f aca="false">IF(A46="", "", "L["""&amp;A46&amp;"""] = """ &amp; B46 &amp; """")</f>
+        <v>L["Toggle tracking normal damage."] = "Habilita el seguimiento de daño normal."</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1586,12 +1628,12 @@
         <v>93</v>
       </c>
       <c r="C47" s="3" t="str">
-        <f aca="false">"L["""&amp;A47&amp;"""] = true"</f>
-        <v>L["Change color of lowest damage values."] = true</v>
+        <f aca="false">IF(A47="", "", "L["""&amp;A47&amp;"""] = true")</f>
+        <v>L["Change color of normal damage text."] = true</v>
       </c>
       <c r="D47" s="1" t="str">
-        <f aca="false">"L["""&amp;A47&amp;"""] = """ &amp; B47 &amp; """"</f>
-        <v>L["Change color of lowest damage values."] = "Cambia el color de los valores de daño más bajos."</v>
+        <f aca="false">IF(A47="", "", "L["""&amp;A47&amp;"""] = """ &amp; B47 &amp; """")</f>
+        <v>L["Change color of normal damage text."] = "Cambia el color de texto del daño normal."</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1602,15 +1644,15 @@
         <v>95</v>
       </c>
       <c r="C48" s="3" t="str">
-        <f aca="false">"L["""&amp;A48&amp;"""] = true"</f>
-        <v>L["White hits"] = true</v>
+        <f aca="false">IF(A48="", "", "L["""&amp;A48&amp;"""] = true")</f>
+        <v>L["Critical damage"] = true</v>
       </c>
       <c r="D48" s="1" t="str">
-        <f aca="false">"L["""&amp;A48&amp;"""] = """ &amp; B48 &amp; """"</f>
-        <v>L["White hits"] = "Golpes blancos"</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A48="", "", "L["""&amp;A48&amp;"""] = """ &amp; B48 &amp; """")</f>
+        <v>L["Critical damage"] = "Daño crítico"</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
         <v>96</v>
       </c>
@@ -1618,12 +1660,12 @@
         <v>97</v>
       </c>
       <c r="C49" s="3" t="str">
-        <f aca="false">"L["""&amp;A49&amp;"""] = true"</f>
-        <v>L["Normal white hits"] = true</v>
+        <f aca="false">IF(A49="", "", "L["""&amp;A49&amp;"""] = true")</f>
+        <v>L["Toggle tracking critical damage."] = true</v>
       </c>
       <c r="D49" s="1" t="str">
-        <f aca="false">"L["""&amp;A49&amp;"""] = """ &amp; B49 &amp; """"</f>
-        <v>L["Normal white hits"] = "Golpes blancos normales"</v>
+        <f aca="false">IF(A49="", "", "L["""&amp;A49&amp;"""] = """ &amp; B49 &amp; """")</f>
+        <v>L["Toggle tracking critical damage."] = "Habilita el seguimiento de daño crítico."</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1634,12 +1676,12 @@
         <v>99</v>
       </c>
       <c r="C50" s="3" t="str">
-        <f aca="false">"L["""&amp;A50&amp;"""] = true"</f>
-        <v>L["Toggle tracking normal white hits."] = true</v>
+        <f aca="false">IF(A50="", "", "L["""&amp;A50&amp;"""] = true")</f>
+        <v>L["Change color of critical damage text."] = true</v>
       </c>
       <c r="D50" s="1" t="str">
-        <f aca="false">"L["""&amp;A50&amp;"""] = """ &amp; B50 &amp; """"</f>
-        <v>L["Toggle tracking normal white hits."] = "Alterna el seguimiento de los golpes blancos normales."</v>
+        <f aca="false">IF(A50="", "", "L["""&amp;A50&amp;"""] = """ &amp; B50 &amp; """")</f>
+        <v>L["Change color of critical damage text."] = "Cambiar el color del texto de daño crítico."</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1650,15 +1692,15 @@
         <v>101</v>
       </c>
       <c r="C51" s="3" t="str">
-        <f aca="false">"L["""&amp;A51&amp;"""] = true"</f>
-        <v>L["Change color of normal white hits text."] = true</v>
+        <f aca="false">IF(A51="", "", "L["""&amp;A51&amp;"""] = true")</f>
+        <v>L["Toggle traking highest damage values."] = true</v>
       </c>
       <c r="D51" s="1" t="str">
-        <f aca="false">"L["""&amp;A51&amp;"""] = """ &amp; B51 &amp; """"</f>
-        <v>L["Change color of normal white hits text."] = "Cambia el color de texto de los golpes blancos normales."</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A51="", "", "L["""&amp;A51&amp;"""] = """ &amp; B51 &amp; """")</f>
+        <v>L["Toggle traking highest damage values."] = "Habilita el seguimiento de los valores de daño más altos."</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
         <v>102</v>
       </c>
@@ -1666,12 +1708,12 @@
         <v>103</v>
       </c>
       <c r="C52" s="3" t="str">
-        <f aca="false">"L["""&amp;A52&amp;"""] = true"</f>
-        <v>L["Critical white hits"] = true</v>
+        <f aca="false">IF(A52="", "", "L["""&amp;A52&amp;"""] = true")</f>
+        <v>L["Change color of highest damage values."] = true</v>
       </c>
       <c r="D52" s="1" t="str">
-        <f aca="false">"L["""&amp;A52&amp;"""] = """ &amp; B52 &amp; """"</f>
-        <v>L["Critical white hits"] = "Golpes blancos críticos"</v>
+        <f aca="false">IF(A52="", "", "L["""&amp;A52&amp;"""] = """ &amp; B52 &amp; """")</f>
+        <v>L["Change color of highest damage values."] = "Cambia el color de los valores de daño más altos."</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1682,12 +1724,12 @@
         <v>105</v>
       </c>
       <c r="C53" s="3" t="str">
-        <f aca="false">"L["""&amp;A53&amp;"""] = true"</f>
-        <v>L["Toggle tracking critical white hits."] = true</v>
+        <f aca="false">IF(A53="", "", "L["""&amp;A53&amp;"""] = true")</f>
+        <v>L["Toggle traking lowest damage values."] = true</v>
       </c>
       <c r="D53" s="1" t="str">
-        <f aca="false">"L["""&amp;A53&amp;"""] = """ &amp; B53 &amp; """"</f>
-        <v>L["Toggle tracking critical white hits."] = "Alterna el seguimiento de los golpes blancos críticos."</v>
+        <f aca="false">IF(A53="", "", "L["""&amp;A53&amp;"""] = """ &amp; B53 &amp; """")</f>
+        <v>L["Toggle traking lowest damage values."] = "Habilita el seguimiento de los valores de daño más bajos."</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1698,15 +1740,15 @@
         <v>107</v>
       </c>
       <c r="C54" s="3" t="str">
-        <f aca="false">"L["""&amp;A54&amp;"""] = true"</f>
-        <v>L["Change color of critical white hits text."] = true</v>
+        <f aca="false">IF(A54="", "", "L["""&amp;A54&amp;"""] = true")</f>
+        <v>L["Change color of lowest damage values."] = true</v>
       </c>
       <c r="D54" s="1" t="str">
-        <f aca="false">"L["""&amp;A54&amp;"""] = """ &amp; B54 &amp; """"</f>
-        <v>L["Change color of critical white hits text."] = "Cambia el color de texto de los golpes blancos críticos."</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A54="", "", "L["""&amp;A54&amp;"""] = """ &amp; B54 &amp; """")</f>
+        <v>L["Change color of lowest damage values."] = "Cambia el color de los valores de daño más bajos."</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
         <v>108</v>
       </c>
@@ -1714,15 +1756,15 @@
         <v>109</v>
       </c>
       <c r="C55" s="3" t="str">
-        <f aca="false">"L["""&amp;A55&amp;"""] = true"</f>
-        <v>L["Toggle traking highest white hits values."] = true</v>
+        <f aca="false">IF(A55="", "", "L["""&amp;A55&amp;"""] = true")</f>
+        <v>L["White hits"] = true</v>
       </c>
       <c r="D55" s="1" t="str">
-        <f aca="false">"L["""&amp;A55&amp;"""] = """ &amp; B55 &amp; """"</f>
-        <v>L["Toggle traking highest white hits values."] = "Alterna el seguimiento de los valores de golpes blancos más altos."</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A55="", "", "L["""&amp;A55&amp;"""] = """ &amp; B55 &amp; """")</f>
+        <v>L["White hits"] = "Golpes blancos"</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
         <v>110</v>
       </c>
@@ -1730,12 +1772,12 @@
         <v>111</v>
       </c>
       <c r="C56" s="3" t="str">
-        <f aca="false">"L["""&amp;A56&amp;"""] = true"</f>
-        <v>L["Change color of highest white hits values."] = true</v>
+        <f aca="false">IF(A56="", "", "L["""&amp;A56&amp;"""] = true")</f>
+        <v>L["Normal white hits"] = true</v>
       </c>
       <c r="D56" s="1" t="str">
-        <f aca="false">"L["""&amp;A56&amp;"""] = """ &amp; B56 &amp; """"</f>
-        <v>L["Change color of highest white hits values."] = "Cambia el color de los valores de golpes blancos más altos."</v>
+        <f aca="false">IF(A56="", "", "L["""&amp;A56&amp;"""] = """ &amp; B56 &amp; """")</f>
+        <v>L["Normal white hits"] = "Golpes blancos normales"</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1746,12 +1788,12 @@
         <v>113</v>
       </c>
       <c r="C57" s="3" t="str">
-        <f aca="false">"L["""&amp;A57&amp;"""] = true"</f>
-        <v>L["Toggle traking lowest white hits values."] = true</v>
+        <f aca="false">IF(A57="", "", "L["""&amp;A57&amp;"""] = true")</f>
+        <v>L["Toggle tracking normal white hits."] = true</v>
       </c>
       <c r="D57" s="1" t="str">
-        <f aca="false">"L["""&amp;A57&amp;"""] = """ &amp; B57 &amp; """"</f>
-        <v>L["Toggle traking lowest white hits values."] = "Alterna el seguimiento de los valores de golpes blancos más bajos."</v>
+        <f aca="false">IF(A57="", "", "L["""&amp;A57&amp;"""] = """ &amp; B57 &amp; """")</f>
+        <v>L["Toggle tracking normal white hits."] = "Habilita el seguimiento de los golpes blancos normales."</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1762,12 +1804,12 @@
         <v>115</v>
       </c>
       <c r="C58" s="3" t="str">
-        <f aca="false">"L["""&amp;A58&amp;"""] = true"</f>
-        <v>L["Change color of lowest white hits values."] = true</v>
+        <f aca="false">IF(A58="", "", "L["""&amp;A58&amp;"""] = true")</f>
+        <v>L["Change color of normal white hits text."] = true</v>
       </c>
       <c r="D58" s="1" t="str">
-        <f aca="false">"L["""&amp;A58&amp;"""] = """ &amp; B58 &amp; """"</f>
-        <v>L["Change color of lowest white hits values."] = "Cambia el color de los valores de golpes blancos más bajos."</v>
+        <f aca="false">IF(A58="", "", "L["""&amp;A58&amp;"""] = """ &amp; B58 &amp; """")</f>
+        <v>L["Change color of normal white hits text."] = "Cambia el color de texto de los golpes blancos normales."</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,15 +1820,15 @@
         <v>117</v>
       </c>
       <c r="C59" s="3" t="str">
-        <f aca="false">"L["""&amp;A59&amp;"""] = true"</f>
-        <v>L["Hit:"] = true</v>
+        <f aca="false">IF(A59="", "", "L["""&amp;A59&amp;"""] = true")</f>
+        <v>L["Critical white hits"] = true</v>
       </c>
       <c r="D59" s="1" t="str">
-        <f aca="false">"L["""&amp;A59&amp;"""] = """ &amp; B59 &amp; """"</f>
-        <v>L["Hit:"] = "Daño normal:"</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A59="", "", "L["""&amp;A59&amp;"""] = """ &amp; B59 &amp; """")</f>
+        <v>L["Critical white hits"] = "Golpes blancos críticos"</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>118</v>
       </c>
@@ -1794,15 +1836,15 @@
         <v>119</v>
       </c>
       <c r="C60" s="3" t="str">
-        <f aca="false">"L["""&amp;A60&amp;"""] = true"</f>
-        <v>L["Hit crit.:"] = true</v>
+        <f aca="false">IF(A60="", "", "L["""&amp;A60&amp;"""] = true")</f>
+        <v>L["Toggle tracking critical white hits."] = true</v>
       </c>
       <c r="D60" s="1" t="str">
-        <f aca="false">"L["""&amp;A60&amp;"""] = """ &amp; B60 &amp; """"</f>
-        <v>L["Hit crit.:"] = "Daño crítico:"</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A60="", "", "L["""&amp;A60&amp;"""] = """ &amp; B60 &amp; """")</f>
+        <v>L["Toggle tracking critical white hits."] = "Habilita el seguimiento de los golpes blancos críticos."</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="s">
         <v>120</v>
       </c>
@@ -1810,15 +1852,15 @@
         <v>121</v>
       </c>
       <c r="C61" s="3" t="str">
-        <f aca="false">"L["""&amp;A61&amp;"""] = true"</f>
-        <v>L["Heal:"] = true</v>
+        <f aca="false">IF(A61="", "", "L["""&amp;A61&amp;"""] = true")</f>
+        <v>L["Change color of critical white hits text."] = true</v>
       </c>
       <c r="D61" s="1" t="str">
-        <f aca="false">"L["""&amp;A61&amp;"""] = """ &amp; B61 &amp; """"</f>
-        <v>L["Heal:"] = "Sanación:"</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A61="", "", "L["""&amp;A61&amp;"""] = """ &amp; B61 &amp; """")</f>
+        <v>L["Change color of critical white hits text."] = "Cambia el color de texto de los golpes blancos críticos."</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="s">
         <v>122</v>
       </c>
@@ -1826,15 +1868,15 @@
         <v>123</v>
       </c>
       <c r="C62" s="3" t="str">
-        <f aca="false">"L["""&amp;A62&amp;"""] = true"</f>
-        <v>L["Heal crit.:"] = true</v>
+        <f aca="false">IF(A62="", "", "L["""&amp;A62&amp;"""] = true")</f>
+        <v>L["Toggle traking highest white hits values."] = true</v>
       </c>
       <c r="D62" s="1" t="str">
-        <f aca="false">"L["""&amp;A62&amp;"""] = """ &amp; B62 &amp; """"</f>
-        <v>L["Heal crit.:"] = "Sanación crítica:"</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A62="", "", "L["""&amp;A62&amp;"""] = """ &amp; B62 &amp; """")</f>
+        <v>L["Toggle traking highest white hits values."] = "Habilita el seguimiento de los valores de golpes blancos más altos."</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="s">
         <v>124</v>
       </c>
@@ -1842,15 +1884,15 @@
         <v>125</v>
       </c>
       <c r="C63" s="3" t="str">
-        <f aca="false">"L["""&amp;A63&amp;"""] = true"</f>
-        <v>L["Disabled"] = true</v>
+        <f aca="false">IF(A63="", "", "L["""&amp;A63&amp;"""] = true")</f>
+        <v>L["Change color of highest white hits values."] = true</v>
       </c>
       <c r="D63" s="1" t="str">
-        <f aca="false">"L["""&amp;A63&amp;"""] = """ &amp; B63 &amp; """"</f>
-        <v>L["Disabled"] = "Deshabilitado"</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A63="", "", "L["""&amp;A63&amp;"""] = """ &amp; B63 &amp; """")</f>
+        <v>L["Change color of highest white hits values."] = "Cambia el color de los valores de golpes blancos más altos."</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="s">
         <v>126</v>
       </c>
@@ -1858,12 +1900,12 @@
         <v>127</v>
       </c>
       <c r="C64" s="3" t="str">
-        <f aca="false">"L["""&amp;A64&amp;"""] = true"</f>
-        <v>L["Enabled"] = true</v>
+        <f aca="false">IF(A64="", "", "L["""&amp;A64&amp;"""] = true")</f>
+        <v>L["Toggle traking lowest white hits values."] = true</v>
       </c>
       <c r="D64" s="1" t="str">
-        <f aca="false">"L["""&amp;A64&amp;"""] = """ &amp; B64 &amp; """"</f>
-        <v>L["Enabled"] = "Habilitado"</v>
+        <f aca="false">IF(A64="", "", "L["""&amp;A64&amp;"""] = """ &amp; B64 &amp; """")</f>
+        <v>L["Toggle traking lowest white hits values."] = "Habilita el seguimiento de los valores de golpes blancos más bajos."</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,12 +1916,12 @@
         <v>129</v>
       </c>
       <c r="C65" s="3" t="str">
-        <f aca="false">"L["""&amp;A65&amp;"""] = true"</f>
-        <v>L["|c%s%s|r critics tracking"] = true</v>
+        <f aca="false">IF(A65="", "", "L["""&amp;A65&amp;"""] = true")</f>
+        <v>L["Change color of lowest white hits values."] = true</v>
       </c>
       <c r="D65" s="1" t="str">
-        <f aca="false">"L["""&amp;A65&amp;"""] = """ &amp; B65 &amp; """"</f>
-        <v>L["|c%s%s|r critics tracking"] = "Seguimiento de críticos |c%s%s|r"</v>
+        <f aca="false">IF(A65="", "", "L["""&amp;A65&amp;"""] = """ &amp; B65 &amp; """")</f>
+        <v>L["Change color of lowest white hits values."] = "Cambia el color de los valores de golpes blancos más bajos."</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1890,15 +1932,15 @@
         <v>131</v>
       </c>
       <c r="C66" s="3" t="str">
-        <f aca="false">"L["""&amp;A66&amp;"""] = true"</f>
-        <v>L["Attack"] = true</v>
+        <f aca="false">IF(A66="", "", "L["""&amp;A66&amp;"""] = true")</f>
+        <v>L["Hit:"] = true</v>
       </c>
       <c r="D66" s="1" t="str">
-        <f aca="false">"L["""&amp;A66&amp;"""] = """ &amp; B66 &amp; """"</f>
-        <v>L["Attack"] = "Atacar"</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A66="", "", "L["""&amp;A66&amp;"""] = """ &amp; B66 &amp; """")</f>
+        <v>L["Hit:"] = "Daño normal:"</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
         <v>132</v>
       </c>
@@ -1906,15 +1948,15 @@
         <v>133</v>
       </c>
       <c r="C67" s="3" t="str">
-        <f aca="false">"L["""&amp;A67&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r critical hit:"] = true</v>
+        <f aca="false">IF(A67="", "", "L["""&amp;A67&amp;"""] = true")</f>
+        <v>L["Hit crit.:"] = true</v>
       </c>
       <c r="D67" s="1" t="str">
-        <f aca="false">"L["""&amp;A67&amp;"""] = """ &amp; B67 &amp; """"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r critical hit:"] = "Nuevo daño crítico |c%smás alto|r y |c%smás bajo|r:"</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A67="", "", "L["""&amp;A67&amp;"""] = """ &amp; B67 &amp; """")</f>
+        <v>L["Hit crit.:"] = "Daño crítico:"</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
         <v>134</v>
       </c>
@@ -1922,15 +1964,15 @@
         <v>135</v>
       </c>
       <c r="C68" s="3" t="str">
-        <f aca="false">"L["""&amp;A68&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r critical hit:"] = true</v>
+        <f aca="false">IF(A68="", "", "L["""&amp;A68&amp;"""] = true")</f>
+        <v>L["Heal:"] = true</v>
       </c>
       <c r="D68" s="1" t="str">
-        <f aca="false">"L["""&amp;A68&amp;"""] = """ &amp; B68 &amp; """"</f>
-        <v>L["New |c%shighest|r critical hit:"] = "Nuevo daño crítico |c%smás alto|r:"</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A68="", "", "L["""&amp;A68&amp;"""] = """ &amp; B68 &amp; """")</f>
+        <v>L["Heal:"] = "Sanación:"</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -1938,15 +1980,15 @@
         <v>137</v>
       </c>
       <c r="C69" s="3" t="str">
-        <f aca="false">"L["""&amp;A69&amp;"""] = true"</f>
-        <v>L["New |c%slowest|r critical hit:"] = true</v>
+        <f aca="false">IF(A69="", "", "L["""&amp;A69&amp;"""] = true")</f>
+        <v>L["Heal crit.:"] = true</v>
       </c>
       <c r="D69" s="1" t="str">
-        <f aca="false">"L["""&amp;A69&amp;"""] = """ &amp; B69 &amp; """"</f>
-        <v>L["New |c%slowest|r critical hit:"] = "Nuevo daño crítico |c%smás bajo|r:"</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A69="", "", "L["""&amp;A69&amp;"""] = """ &amp; B69 &amp; """")</f>
+        <v>L["Heal crit.:"] = "Sanación crítica:"</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
         <v>138</v>
       </c>
@@ -1954,15 +1996,15 @@
         <v>139</v>
       </c>
       <c r="C70" s="3" t="str">
-        <f aca="false">"L["""&amp;A70&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r normal hit:"] = true</v>
+        <f aca="false">IF(A70="", "", "L["""&amp;A70&amp;"""] = true")</f>
+        <v>L["Disabled"] = true</v>
       </c>
       <c r="D70" s="1" t="str">
-        <f aca="false">"L["""&amp;A70&amp;"""] = """ &amp; B70 &amp; """"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r normal hit:"] = "Nuevo daño normal |c%smás alto|r y |c%smás bajo|r:"</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A70="", "", "L["""&amp;A70&amp;"""] = """ &amp; B70 &amp; """")</f>
+        <v>L["Disabled"] = "Deshabilitado"</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
         <v>140</v>
       </c>
@@ -1970,12 +2012,12 @@
         <v>141</v>
       </c>
       <c r="C71" s="3" t="str">
-        <f aca="false">"L["""&amp;A71&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r normal hit:"] = true</v>
+        <f aca="false">IF(A71="", "", "L["""&amp;A71&amp;"""] = true")</f>
+        <v>L["Enabled"] = true</v>
       </c>
       <c r="D71" s="1" t="str">
-        <f aca="false">"L["""&amp;A71&amp;"""] = """ &amp; B71 &amp; """"</f>
-        <v>L["New |c%shighest|r normal hit:"] = "Nuevo daño normal |c%smás alto|r:"</v>
+        <f aca="false">IF(A71="", "", "L["""&amp;A71&amp;"""] = """ &amp; B71 &amp; """")</f>
+        <v>L["Enabled"] = "Habilitado"</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1986,15 +2028,15 @@
         <v>143</v>
       </c>
       <c r="C72" s="3" t="str">
-        <f aca="false">"L["""&amp;A72&amp;"""] = true"</f>
-        <v>L["New |c%slowest|r normal hit:"] = true</v>
+        <f aca="false">IF(A72="", "", "L["""&amp;A72&amp;"""] = true")</f>
+        <v>L["|c%s%s|r critics tracking"] = true</v>
       </c>
       <c r="D72" s="1" t="str">
-        <f aca="false">"L["""&amp;A72&amp;"""] = """ &amp; B72 &amp; """"</f>
-        <v>L["New |c%slowest|r normal hit:"] = "Nuevo daño normal |c%smás bajo|r:"</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A72="", "", "L["""&amp;A72&amp;"""] = """ &amp; B72 &amp; """")</f>
+        <v>L["|c%s%s|r critics tracking"] = "Seguimiento de críticos |c%s%s|r"</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="s">
         <v>144</v>
       </c>
@@ -2002,12 +2044,12 @@
         <v>145</v>
       </c>
       <c r="C73" s="3" t="str">
-        <f aca="false">"L["""&amp;A73&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r critical heal:"] = true</v>
+        <f aca="false">IF(A73="", "", "L["""&amp;A73&amp;"""] = true")</f>
+        <v>L["Attack"] = true</v>
       </c>
       <c r="D73" s="1" t="str">
-        <f aca="false">"L["""&amp;A73&amp;"""] = """ &amp; B73 &amp; """"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r critical heal:"] = "Nueva sanación crítica |c%smás alta|r y |c%smás baja|r:"</v>
+        <f aca="false">IF(A73="", "", "L["""&amp;A73&amp;"""] = """ &amp; B73 &amp; """")</f>
+        <v>L["Attack"] = "Atacar"</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,12 +2060,12 @@
         <v>147</v>
       </c>
       <c r="C74" s="3" t="str">
-        <f aca="false">"L["""&amp;A74&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r critical heal:"] = true</v>
+        <f aca="false">IF(A74="", "", "L["""&amp;A74&amp;"""] = true")</f>
+        <v>L["New |c%shighest|r and |c%slowest|r critical hit:"] = true</v>
       </c>
       <c r="D74" s="1" t="str">
-        <f aca="false">"L["""&amp;A74&amp;"""] = """ &amp; B74 &amp; """"</f>
-        <v>L["New |c%shighest|r critical heal:"] = "Nueva sanación crítica |c%smás alta|r:"</v>
+        <f aca="false">IF(A74="", "", "L["""&amp;A74&amp;"""] = """ &amp; B74 &amp; """")</f>
+        <v>L["New |c%shighest|r and |c%slowest|r critical hit:"] = "Nuevo daño crítico |c%smás alto|r y |c%smás bajo|r:"</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2034,12 +2076,12 @@
         <v>149</v>
       </c>
       <c r="C75" s="3" t="str">
-        <f aca="false">"L["""&amp;A75&amp;"""] = true"</f>
-        <v>L["New |c%slowest|r critical heal:"] = true</v>
+        <f aca="false">IF(A75="", "", "L["""&amp;A75&amp;"""] = true")</f>
+        <v>L["New |c%shighest|r critical hit:"] = true</v>
       </c>
       <c r="D75" s="1" t="str">
-        <f aca="false">"L["""&amp;A75&amp;"""] = """ &amp; B75 &amp; """"</f>
-        <v>L["New |c%slowest|r critical heal:"] = "Nueva sanación crítica |c%smás baja|r:"</v>
+        <f aca="false">IF(A75="", "", "L["""&amp;A75&amp;"""] = """ &amp; B75 &amp; """")</f>
+        <v>L["New |c%shighest|r critical hit:"] = "Nuevo daño crítico |c%smás alto|r:"</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2050,12 +2092,12 @@
         <v>151</v>
       </c>
       <c r="C76" s="3" t="str">
-        <f aca="false">"L["""&amp;A76&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r normal heal:"] = true</v>
+        <f aca="false">IF(A76="", "", "L["""&amp;A76&amp;"""] = true")</f>
+        <v>L["New |c%slowest|r critical hit:"] = true</v>
       </c>
       <c r="D76" s="1" t="str">
-        <f aca="false">"L["""&amp;A76&amp;"""] = """ &amp; B76 &amp; """"</f>
-        <v>L["New |c%shighest|r and |c%slowest|r normal heal:"] = "Nueva sanación normal |c%smás alta|r y |c%smás baja|r:"</v>
+        <f aca="false">IF(A76="", "", "L["""&amp;A76&amp;"""] = """ &amp; B76 &amp; """")</f>
+        <v>L["New |c%slowest|r critical hit:"] = "Nuevo daño crítico |c%smás bajo|r:"</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,12 +2108,12 @@
         <v>153</v>
       </c>
       <c r="C77" s="3" t="str">
-        <f aca="false">"L["""&amp;A77&amp;"""] = true"</f>
-        <v>L["New |c%shighest|r normal heal:"] = true</v>
+        <f aca="false">IF(A77="", "", "L["""&amp;A77&amp;"""] = true")</f>
+        <v>L["New |c%shighest|r and |c%slowest|r normal hit:"] = true</v>
       </c>
       <c r="D77" s="1" t="str">
-        <f aca="false">"L["""&amp;A77&amp;"""] = """ &amp; B77 &amp; """"</f>
-        <v>L["New |c%shighest|r normal heal:"] = "Nueva sanación normal |c%smás alta|r:"</v>
+        <f aca="false">IF(A77="", "", "L["""&amp;A77&amp;"""] = """ &amp; B77 &amp; """")</f>
+        <v>L["New |c%shighest|r and |c%slowest|r normal hit:"] = "Nuevo daño normal |c%smás alto|r y |c%smás bajo|r:"</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,204 +2124,204 @@
         <v>155</v>
       </c>
       <c r="C78" s="3" t="str">
-        <f aca="false">"L["""&amp;A78&amp;"""] = true"</f>
-        <v>L["New |c%slowest|r normal heal:"] = true</v>
+        <f aca="false">IF(A78="", "", "L["""&amp;A78&amp;"""] = true")</f>
+        <v>L["New |c%shighest|r normal hit:"] = true</v>
       </c>
       <c r="D78" s="1" t="str">
-        <f aca="false">"L["""&amp;A78&amp;"""] = """ &amp; B78 &amp; """"</f>
-        <v>L["New |c%slowest|r normal heal:"] = "Nueva sanación normal |c%smás baja|r:"</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A78="", "", "L["""&amp;A78&amp;"""] = """ &amp; B78 &amp; """")</f>
+        <v>L["New |c%shighest|r normal hit:"] = "Nuevo daño normal |c%smás alto|r:"</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C79" s="3" t="str">
-        <f aca="false">"L["""&amp;A79&amp;"""] = true"</f>
-        <v>L["ID"] = true</v>
+        <f aca="false">IF(A79="", "", "L["""&amp;A79&amp;"""] = true")</f>
+        <v>L["New |c%slowest|r normal hit:"] = true</v>
       </c>
       <c r="D79" s="1" t="str">
-        <f aca="false">"L["""&amp;A79&amp;"""] = """ &amp; B79 &amp; """"</f>
-        <v>L["ID"] = "ID"</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A79="", "", "L["""&amp;A79&amp;"""] = """ &amp; B79 &amp; """")</f>
+        <v>L["New |c%slowest|r normal hit:"] = "Nuevo daño normal |c%smás bajo|r:"</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C80" s="3" t="str">
-        <f aca="false">"L["""&amp;A80&amp;"""] = true"</f>
-        <v>L["ID of the spell."] = true</v>
+        <f aca="false">IF(A80="", "", "L["""&amp;A80&amp;"""] = true")</f>
+        <v>L["New |c%shighest|r and |c%slowest|r critical heal:"] = true</v>
       </c>
       <c r="D80" s="1" t="str">
-        <f aca="false">"L["""&amp;A80&amp;"""] = """ &amp; B80 &amp; """"</f>
-        <v>L["ID of the spell."] = "ID hechizo."</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A80="", "", "L["""&amp;A80&amp;"""] = """ &amp; B80 &amp; """")</f>
+        <v>L["New |c%shighest|r and |c%slowest|r critical heal:"] = "Nueva sanación crítica |c%smás alta|r y |c%smás baja|r:"</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C81" s="3" t="str">
-        <f aca="false">"L["""&amp;A81&amp;"""] = true"</f>
-        <v>L["Spell name"] = true</v>
+        <f aca="false">IF(A81="", "", "L["""&amp;A81&amp;"""] = true")</f>
+        <v>L["New |c%shighest|r critical heal:"] = true</v>
       </c>
       <c r="D81" s="1" t="str">
-        <f aca="false">"L["""&amp;A81&amp;"""] = """ &amp; B81 &amp; """"</f>
-        <v>L["Spell name"] = "Hechizo"</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A81="", "", "L["""&amp;A81&amp;"""] = """ &amp; B81 &amp; """")</f>
+        <v>L["New |c%shighest|r critical heal:"] = "Nueva sanación crítica |c%smás alta|r:"</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C82" s="3" t="str">
-        <f aca="false">"L["""&amp;A82&amp;"""] = true"</f>
-        <v>L["Spell name and rank."] = true</v>
+        <f aca="false">IF(A82="", "", "L["""&amp;A82&amp;"""] = true")</f>
+        <v>L["New |c%slowest|r critical heal:"] = true</v>
       </c>
       <c r="D82" s="1" t="str">
-        <f aca="false">"L["""&amp;A82&amp;"""] = """ &amp; B82 &amp; """"</f>
-        <v>L["Spell name and rank."] = "Hechizo y rango."</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A82="", "", "L["""&amp;A82&amp;"""] = """ &amp; B82 &amp; """")</f>
+        <v>L["New |c%slowest|r critical heal:"] = "Nueva sanación crítica |c%smás baja|r:"</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C83" s="3" t="str">
-        <f aca="false">"L["""&amp;A83&amp;"""] = true"</f>
-        <v>L["Normal"] = true</v>
+        <f aca="false">IF(A83="", "", "L["""&amp;A83&amp;"""] = true")</f>
+        <v>L["New |c%shighest|r and |c%slowest|r normal heal:"] = true</v>
       </c>
       <c r="D83" s="1" t="str">
-        <f aca="false">"L["""&amp;A83&amp;"""] = """ &amp; B83 &amp; """"</f>
-        <v>L["Normal"] = "Normal"</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A83="", "", "L["""&amp;A83&amp;"""] = """ &amp; B83 &amp; """")</f>
+        <v>L["New |c%shighest|r and |c%slowest|r normal heal:"] = "Nueva sanación normal |c%smás alta|r y |c%smás baja|r:"</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C84" s="3" t="str">
-        <f aca="false">"L["""&amp;A84&amp;"""] = true"</f>
-        <v>L["Normal hit or heal."] = true</v>
+        <f aca="false">IF(A84="", "", "L["""&amp;A84&amp;"""] = true")</f>
+        <v>L["New |c%shighest|r normal heal:"] = true</v>
       </c>
       <c r="D84" s="1" t="str">
-        <f aca="false">"L["""&amp;A84&amp;"""] = """ &amp; B84 &amp; """"</f>
-        <v>L["Normal hit or heal."] = "Daño o sanación normal."</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A84="", "", "L["""&amp;A84&amp;"""] = """ &amp; B84 &amp; """")</f>
+        <v>L["New |c%shighest|r normal heal:"] = "Nueva sanación normal |c%smás alta|r:"</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C85" s="3" t="str">
-        <f aca="false">"L["""&amp;A85&amp;"""] = true"</f>
-        <v>L["Critic"] = true</v>
+        <f aca="false">IF(A85="", "", "L["""&amp;A85&amp;"""] = true")</f>
+        <v>L["New |c%slowest|r normal heal:"] = true</v>
       </c>
       <c r="D85" s="1" t="str">
-        <f aca="false">"L["""&amp;A85&amp;"""] = """ &amp; B85 &amp; """"</f>
-        <v>L["Critic"] = "Crítico"</v>
+        <f aca="false">IF(A85="", "", "L["""&amp;A85&amp;"""] = """ &amp; B85 &amp; """")</f>
+        <v>L["New |c%slowest|r normal heal:"] = "Nueva sanación normal |c%smás baja|r:"</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C86" s="3" t="str">
-        <f aca="false">"L["""&amp;A86&amp;"""] = true"</f>
-        <v>L["Critic hit or heal."] = true</v>
+        <f aca="false">IF(A86="", "", "L["""&amp;A86&amp;"""] = true")</f>
+        <v>L["ID"] = true</v>
       </c>
       <c r="D86" s="1" t="str">
-        <f aca="false">"L["""&amp;A86&amp;"""] = """ &amp; B86 &amp; """"</f>
-        <v>L["Critic hit or heal."] = "Daño o sanación crítica."</v>
+        <f aca="false">IF(A86="", "", "L["""&amp;A86&amp;"""] = """ &amp; B86 &amp; """")</f>
+        <v>L["ID"] = "ID"</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C87" s="3" t="str">
-        <f aca="false">"L["""&amp;A87&amp;"""] = true"</f>
-        <v>L["Lock"] = true</v>
+        <f aca="false">IF(A87="", "", "L["""&amp;A87&amp;"""] = true")</f>
+        <v>L["ID of the spell."] = true</v>
       </c>
       <c r="D87" s="1" t="str">
-        <f aca="false">"L["""&amp;A87&amp;"""] = """ &amp; B87 &amp; """"</f>
-        <v>L["Lock"] = "Bloquear"</v>
+        <f aca="false">IF(A87="", "", "L["""&amp;A87&amp;"""] = """ &amp; B87 &amp; """")</f>
+        <v>L["ID of the spell."] = "ID hechizo."</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C88" s="3" t="str">
-        <f aca="false">"L["""&amp;A88&amp;"""] = true"</f>
-        <v>L["Lock position"] = true</v>
+        <f aca="false">IF(A88="", "", "L["""&amp;A88&amp;"""] = true")</f>
+        <v>L["Spell name"] = true</v>
       </c>
       <c r="D88" s="1" t="str">
-        <f aca="false">"L["""&amp;A88&amp;"""] = """ &amp; B88 &amp; """"</f>
-        <v>L["Lock position"] = "Bloquear posicion"</v>
+        <f aca="false">IF(A88="", "", "L["""&amp;A88&amp;"""] = """ &amp; B88 &amp; """")</f>
+        <v>L["Spell name"] = "Hechizo"</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C89" s="3" t="str">
-        <f aca="false">"L["""&amp;A89&amp;"""] = true"</f>
-        <v>L["Spell list"] = true</v>
+        <f aca="false">IF(A89="", "", "L["""&amp;A89&amp;"""] = true")</f>
+        <v>L["Spell name and rank."] = true</v>
       </c>
       <c r="D89" s="1" t="str">
-        <f aca="false">"L["""&amp;A89&amp;"""] = """ &amp; B89 &amp; """"</f>
-        <v>L["Spell list"] = "Lista de hechizos"</v>
+        <f aca="false">IF(A89="", "", "L["""&amp;A89&amp;"""] = """ &amp; B89 &amp; """")</f>
+        <v>L["Spell name and rank."] = "Hechizo y rango."</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C90" s="3" t="str">
-        <f aca="false">"L["""&amp;A90&amp;"""] = true"</f>
-        <v>L["Various classes"] = true</v>
+        <f aca="false">IF(A90="", "", "L["""&amp;A90&amp;"""] = true")</f>
+        <v>L["Normal"] = true</v>
       </c>
       <c r="D90" s="1" t="str">
-        <f aca="false">"L["""&amp;A90&amp;"""] = """ &amp; B90 &amp; """"</f>
-        <v>L["Various classes"] = "Varias clases"</v>
+        <f aca="false">IF(A90="", "", "L["""&amp;A90&amp;"""] = """ &amp; B90 &amp; """")</f>
+        <v>L["Normal"] = "Normal"</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2290,15 +2332,15 @@
         <v>179</v>
       </c>
       <c r="C91" s="3" t="str">
-        <f aca="false">"L["""&amp;A91&amp;"""] = true"</f>
-        <v>L["Delete entry"] = true</v>
+        <f aca="false">IF(A91="", "", "L["""&amp;A91&amp;"""] = true")</f>
+        <v>L["Normal hit or heal."] = true</v>
       </c>
       <c r="D91" s="1" t="str">
-        <f aca="false">"L["""&amp;A91&amp;"""] = """ &amp; B91 &amp; """"</f>
-        <v>L["Delete entry"] = "Borrar entrada"</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A91="", "", "L["""&amp;A91&amp;"""] = """ &amp; B91 &amp; """")</f>
+        <v>L["Normal hit or heal."] = "Daño o sanación normal."</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="s">
         <v>180</v>
       </c>
@@ -2306,12 +2348,12 @@
         <v>181</v>
       </c>
       <c r="C92" s="3" t="str">
-        <f aca="false">"L["""&amp;A92&amp;"""] = true"</f>
-        <v>L["Are you sure you want to delete this entry?"] = true</v>
+        <f aca="false">IF(A92="", "", "L["""&amp;A92&amp;"""] = true")</f>
+        <v>L["Critic"] = true</v>
       </c>
       <c r="D92" s="1" t="str">
-        <f aca="false">"L["""&amp;A92&amp;"""] = """ &amp; B92 &amp; """"</f>
-        <v>L["Are you sure you want to delete this entry?"] = "¿Está seguro de que desea eliminar esta entrada?"</v>
+        <f aca="false">IF(A92="", "", "L["""&amp;A92&amp;"""] = """ &amp; B92 &amp; """")</f>
+        <v>L["Critic"] = "Crítico"</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,12 +2364,12 @@
         <v>183</v>
       </c>
       <c r="C93" s="3" t="str">
-        <f aca="false">"L["""&amp;A93&amp;"""] = true"</f>
-        <v>L["Filter"] = true</v>
+        <f aca="false">IF(A93="", "", "L["""&amp;A93&amp;"""] = true")</f>
+        <v>L["Critic hit or heal."] = true</v>
       </c>
       <c r="D93" s="1" t="str">
-        <f aca="false">"L["""&amp;A93&amp;"""] = """ &amp; B93 &amp; """"</f>
-        <v>L["Filter"] = "Filtro"</v>
+        <f aca="false">IF(A93="", "", "L["""&amp;A93&amp;"""] = """ &amp; B93 &amp; """")</f>
+        <v>L["Critic hit or heal."] = "Daño o sanación crítica."</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2338,12 +2380,12 @@
         <v>185</v>
       </c>
       <c r="C94" s="3" t="str">
-        <f aca="false">"L["""&amp;A94&amp;"""] = true"</f>
-        <v>L["Realm"] = true</v>
+        <f aca="false">IF(A94="", "", "L["""&amp;A94&amp;"""] = true")</f>
+        <v>L["Lock"] = true</v>
       </c>
       <c r="D94" s="1" t="str">
-        <f aca="false">"L["""&amp;A94&amp;"""] = """ &amp; B94 &amp; """"</f>
-        <v>L["Realm"] = "Reino"</v>
+        <f aca="false">IF(A94="", "", "L["""&amp;A94&amp;"""] = """ &amp; B94 &amp; """")</f>
+        <v>L["Lock"] = "Bloquear"</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2354,12 +2396,12 @@
         <v>187</v>
       </c>
       <c r="C95" s="3" t="str">
-        <f aca="false">"L["""&amp;A95&amp;"""] = true"</f>
-        <v>L["Character"] = true</v>
+        <f aca="false">IF(A95="", "", "L["""&amp;A95&amp;"""] = true")</f>
+        <v>L["Lock position"] = true</v>
       </c>
       <c r="D95" s="1" t="str">
-        <f aca="false">"L["""&amp;A95&amp;"""] = """ &amp; B95 &amp; """"</f>
-        <v>L["Character"] = "Personaje"</v>
+        <f aca="false">IF(A95="", "", "L["""&amp;A95&amp;"""] = """ &amp; B95 &amp; """")</f>
+        <v>L["Lock position"] = "Bloquear posicion"</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2370,12 +2412,12 @@
         <v>189</v>
       </c>
       <c r="C96" s="3" t="str">
-        <f aca="false">"L["""&amp;A96&amp;"""] = true"</f>
-        <v>L["Type"] = true</v>
+        <f aca="false">IF(A96="", "", "L["""&amp;A96&amp;"""] = true")</f>
+        <v>L["Spell list"] = true</v>
       </c>
       <c r="D96" s="1" t="str">
-        <f aca="false">"L["""&amp;A96&amp;"""] = """ &amp; B96 &amp; """"</f>
-        <v>L["Type"] = "Tipo"</v>
+        <f aca="false">IF(A96="", "", "L["""&amp;A96&amp;"""] = """ &amp; B96 &amp; """")</f>
+        <v>L["Spell list"] = "Lista de hechizos"</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2386,12 +2428,12 @@
         <v>191</v>
       </c>
       <c r="C97" s="3" t="str">
-        <f aca="false">"L["""&amp;A97&amp;"""] = true"</f>
-        <v>L["Search criteria"] = true</v>
+        <f aca="false">IF(A97="", "", "L["""&amp;A97&amp;"""] = true")</f>
+        <v>L["Various classes"] = true</v>
       </c>
       <c r="D97" s="1" t="str">
-        <f aca="false">"L["""&amp;A97&amp;"""] = """ &amp; B97 &amp; """"</f>
-        <v>L["Search criteria"] = "Criterio de búsqueda"</v>
+        <f aca="false">IF(A97="", "", "L["""&amp;A97&amp;"""] = """ &amp; B97 &amp; """")</f>
+        <v>L["Various classes"] = "Varias clases"</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,15 +2444,15 @@
         <v>193</v>
       </c>
       <c r="C98" s="3" t="str">
-        <f aca="false">"L["""&amp;A98&amp;"""] = true"</f>
-        <v>L["All"] = true</v>
+        <f aca="false">IF(A98="", "", "L["""&amp;A98&amp;"""] = true")</f>
+        <v>L["Delete entry"] = true</v>
       </c>
       <c r="D98" s="1" t="str">
-        <f aca="false">"L["""&amp;A98&amp;"""] = """ &amp; B98 &amp; """"</f>
-        <v>L["All"] = "Todos"</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <f aca="false">IF(A98="", "", "L["""&amp;A98&amp;"""] = """ &amp; B98 &amp; """")</f>
+        <v>L["Delete entry"] = "Borrar entrada"</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="s">
         <v>194</v>
       </c>
@@ -2418,12 +2460,12 @@
         <v>195</v>
       </c>
       <c r="C99" s="3" t="str">
-        <f aca="false">"L["""&amp;A99&amp;"""] = true"</f>
-        <v>L["Back"] = true</v>
+        <f aca="false">IF(A99="", "", "L["""&amp;A99&amp;"""] = true")</f>
+        <v>L["Are you sure you want to delete this entry?"] = true</v>
       </c>
       <c r="D99" s="1" t="str">
-        <f aca="false">"L["""&amp;A99&amp;"""] = """ &amp; B99 &amp; """"</f>
-        <v>L["Back"] = "Volver"</v>
+        <f aca="false">IF(A99="", "", "L["""&amp;A99&amp;"""] = """ &amp; B99 &amp; """")</f>
+        <v>L["Are you sure you want to delete this entry?"] = "¿Está seguro de que desea eliminar esta entrada?"</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,52 +2476,125 @@
         <v>197</v>
       </c>
       <c r="C100" s="3" t="str">
-        <f aca="false">"L["""&amp;A100&amp;"""] = true"</f>
+        <f aca="false">IF(A100="", "", "L["""&amp;A100&amp;"""] = true")</f>
+        <v>L["Filter"] = true</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f aca="false">IF(A100="", "", "L["""&amp;A100&amp;"""] = """ &amp; B100 &amp; """")</f>
+        <v>L["Filter"] = "Filtro"</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" s="3" t="str">
+        <f aca="false">IF(A101="", "", "L["""&amp;A101&amp;"""] = true")</f>
+        <v>L["Realm"] = true</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f aca="false">IF(A101="", "", "L["""&amp;A101&amp;"""] = """ &amp; B101 &amp; """")</f>
+        <v>L["Realm"] = "Reino"</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="3" t="str">
+        <f aca="false">IF(A102="", "", "L["""&amp;A102&amp;"""] = true")</f>
+        <v>L["Character"] = true</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f aca="false">IF(A102="", "", "L["""&amp;A102&amp;"""] = """ &amp; B102 &amp; """")</f>
+        <v>L["Character"] = "Personaje"</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="3" t="str">
+        <f aca="false">IF(A103="", "", "L["""&amp;A103&amp;"""] = true")</f>
+        <v>L["Type"] = true</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f aca="false">IF(A103="", "", "L["""&amp;A103&amp;"""] = """ &amp; B103 &amp; """")</f>
+        <v>L["Type"] = "Tipo"</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" s="3" t="str">
+        <f aca="false">IF(A104="", "", "L["""&amp;A104&amp;"""] = true")</f>
+        <v>L["Search criteria"] = true</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f aca="false">IF(A104="", "", "L["""&amp;A104&amp;"""] = """ &amp; B104 &amp; """")</f>
+        <v>L["Search criteria"] = "Criterio de búsqueda"</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" s="3" t="str">
+        <f aca="false">IF(A105="", "", "L["""&amp;A105&amp;"""] = true")</f>
+        <v>L["All"] = true</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f aca="false">IF(A105="", "", "L["""&amp;A105&amp;"""] = """ &amp; B105 &amp; """")</f>
+        <v>L["All"] = "Todos"</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" s="3" t="str">
+        <f aca="false">IF(A106="", "", "L["""&amp;A106&amp;"""] = true")</f>
+        <v>L["Back"] = true</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f aca="false">IF(A106="", "", "L["""&amp;A106&amp;"""] = """ &amp; B106 &amp; """")</f>
+        <v>L["Back"] = "Volver"</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="3" t="str">
+        <f aca="false">IF(A107="", "", "L["""&amp;A107&amp;"""] = true")</f>
         <v>L["Settings"] = true</v>
       </c>
-      <c r="D100" s="1" t="str">
-        <f aca="false">"L["""&amp;A100&amp;"""] = """ &amp; B100 &amp; """"</f>
+      <c r="D107" s="1" t="str">
+        <f aca="false">IF(A107="", "", "L["""&amp;A107&amp;"""] = """ &amp; B107 &amp; """")</f>
         <v>L["Settings"] = "Configuración"</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3" t="str">
-        <f aca="false">"L["""&amp;A101&amp;"""] = true"</f>
-        <v>L[""] = true</v>
-      </c>
-      <c r="D101" s="1" t="str">
-        <f aca="false">"L["""&amp;A101&amp;"""] = """ &amp; B101 &amp; """"</f>
-        <v>L[""] = ""</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3" t="str">
-        <f aca="false">"L["""&amp;A102&amp;"""] = true"</f>
-        <v>L[""] = true</v>
-      </c>
-      <c r="D102" s="1" t="str">
-        <f aca="false">"L["""&amp;A102&amp;"""] = """ &amp; B102 &amp; """"</f>
-        <v>L[""] = ""</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3" t="str">
-        <f aca="false">"L["""&amp;A103&amp;"""] = true"</f>
-        <v>L[""] = true</v>
-      </c>
-      <c r="D103" s="1" t="str">
-        <f aca="false">"L["""&amp;A103&amp;"""] = """ &amp; B103 &amp; """"</f>
-        <v>L[""] = ""</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
